--- a/Рабочие материалы/Реальные группы 2022-2023/Новички 2022.xlsx
+++ b/Рабочие материалы/Реальные группы 2022-2023/Новички 2022.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$L$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$L$29</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="124">
   <si>
     <t>Фамилия</t>
   </si>
@@ -200,6 +200,12 @@
   </si>
   <si>
     <t>Даша</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Власова </t>
+  </si>
+  <si>
+    <t>Валя</t>
   </si>
   <si>
     <t>Дружинин</t>
@@ -441,10 +447,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-* #\,##0.00\ &quot;₽&quot;_-;\-* #\,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\,##0_-;\-* #\,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\,##0\ &quot;₽&quot;_-;\-* #\,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\,##0.00_-;\-* #\,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #\,##0\ &quot;₽&quot;_-;\-* #\,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\,##0.00_-;\-* #\,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\,##0_-;\-* #\,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\,##0.00\ &quot;₽&quot;_-;\-* #\,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="dd\.mmm"/>
   </numFmts>
   <fonts count="22">
@@ -469,9 +475,39 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -482,8 +518,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -498,102 +567,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -611,6 +587,36 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -639,31 +645,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,19 +789,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,96 +813,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -801,25 +825,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -866,8 +872,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -884,6 +908,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -894,39 +933,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -950,148 +956,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1432,12 +1438,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:W64"/>
+  <dimension ref="A1:Y65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="Y29" sqref="Y29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1455,9 +1461,11 @@
     <col min="15" max="15" width="16.2222222222222" customWidth="1"/>
     <col min="18" max="18" width="2.66666666666667" customWidth="1"/>
     <col min="19" max="21" width="3.66666666666667" customWidth="1"/>
+    <col min="23" max="23" width="2.66666666666667" customWidth="1"/>
+    <col min="25" max="25" width="2.66666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1496,6 +1504,9 @@
       </c>
       <c r="V1" s="1">
         <v>44856</v>
+      </c>
+      <c r="X1" s="1">
+        <v>44863</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1516,7 +1527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:24">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1575,8 +1586,11 @@
       <c r="V3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="X3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1617,8 +1631,11 @@
       <c r="U4">
         <v>-4</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="X4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1665,6 +1682,9 @@
       <c r="W5">
         <v>5</v>
       </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" hidden="1" spans="1:21">
       <c r="A6" s="2" t="s">
@@ -1753,7 +1773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:24">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -1785,8 +1805,11 @@
       <c r="V11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="X11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
@@ -1839,8 +1862,11 @@
       <c r="V12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="X12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
@@ -1881,6 +1907,9 @@
       <c r="U13">
         <v>0</v>
       </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" hidden="1" spans="1:21">
       <c r="A14" s="2" t="s">
@@ -1897,7 +1926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:24">
       <c r="A15" s="2" t="s">
         <v>34</v>
       </c>
@@ -1929,8 +1958,11 @@
         <f>SUBTOTAL(9,D15:M15)</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:21">
+      <c r="X15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" s="2" t="s">
         <v>36</v>
       </c>
@@ -1983,8 +2015,11 @@
       <c r="U16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="X16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" s="2" t="s">
         <v>38</v>
       </c>
@@ -2019,8 +2054,14 @@
       <c r="V17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="X17">
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" s="2" t="s">
         <v>40</v>
       </c>
@@ -2067,6 +2108,12 @@
       <c r="V18">
         <v>1</v>
       </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Y18">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2" t="s">
@@ -2131,7 +2178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:24">
       <c r="A21" s="2" t="s">
         <v>46</v>
       </c>
@@ -2169,8 +2216,11 @@
       <c r="V21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="X21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" s="2" t="s">
         <v>47</v>
       </c>
@@ -2235,6 +2285,9 @@
       <c r="W22">
         <v>5</v>
       </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" s="2" t="s">
@@ -2284,7 +2337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" ht="15.15" spans="1:21">
+    <row r="24" ht="15.15" spans="1:24">
       <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
@@ -2319,6 +2372,9 @@
       <c r="U24">
         <v>-4</v>
       </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" ht="15.15" hidden="1" spans="1:21">
       <c r="A25" s="2" t="s">
@@ -2338,7 +2394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" ht="15.15" spans="1:22">
       <c r="A26" s="4" t="s">
         <v>55</v>
       </c>
@@ -2380,7 +2436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:25">
       <c r="A27" s="5" t="s">
         <v>57</v>
       </c>
@@ -2424,8 +2480,14 @@
       <c r="W27">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:22">
+      <c r="X27">
+        <v>1</v>
+      </c>
+      <c r="Y27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" hidden="1" spans="1:24">
       <c r="A28" s="5" t="s">
         <v>59</v>
       </c>
@@ -2448,32 +2510,37 @@
       <c r="V28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="2" t="s">
+      <c r="X28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
+      <c r="A29" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C30" t="s">
-        <v>63</v>
-      </c>
+      <c r="C29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" t="s">
         <v>65</v>
-      </c>
-      <c r="C31" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2484,7 +2551,7 @@
         <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2492,21 +2559,21 @@
         <v>68</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C34" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2517,7 +2584,7 @@
         <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2528,7 +2595,7 @@
         <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2536,21 +2603,21 @@
         <v>75</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="C37" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2561,7 +2628,7 @@
         <v>79</v>
       </c>
       <c r="C39" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2569,21 +2636,21 @@
         <v>80</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="C41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2594,7 +2661,7 @@
         <v>84</v>
       </c>
       <c r="C42" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2605,7 +2672,7 @@
         <v>86</v>
       </c>
       <c r="C43" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2613,21 +2680,21 @@
         <v>87</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C44" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="C45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2638,7 +2705,7 @@
         <v>91</v>
       </c>
       <c r="C46" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2649,7 +2716,7 @@
         <v>93</v>
       </c>
       <c r="C47" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2660,29 +2727,29 @@
         <v>95</v>
       </c>
       <c r="C48" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C49" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>39</v>
+      <c r="B50" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="C50" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2690,21 +2757,21 @@
         <v>100</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="C51" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" t="s">
         <v>101</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C52" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2712,21 +2779,21 @@
         <v>103</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="C53" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="C54" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2734,21 +2801,21 @@
         <v>106</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="C55" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2756,21 +2823,21 @@
         <v>109</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="C57" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="C58" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2778,32 +2845,32 @@
         <v>112</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="C59" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C60" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="C61" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2814,7 +2881,7 @@
         <v>117</v>
       </c>
       <c r="C62" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2825,7 +2892,7 @@
         <v>119</v>
       </c>
       <c r="C63" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2836,15 +2903,26 @@
         <v>121</v>
       </c>
       <c r="C64" t="s">
-        <v>99</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C65" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L28">
+  <autoFilter ref="A1:L29">
     <filterColumn colId="2">
-      <customFilters>
-        <customFilter operator="equal" val="ВМ"/>
-      </customFilters>
+      <filters>
+        <filter val="ВМ"/>
+      </filters>
     </filterColumn>
     <extLst/>
   </autoFilter>

--- a/Рабочие материалы/Реальные группы 2022-2023/Новички 2022.xlsx
+++ b/Рабочие материалы/Реальные группы 2022-2023/Новички 2022.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="124">
   <si>
     <t>Фамилия</t>
   </si>
@@ -43,13 +43,13 @@
     <t>Артём</t>
   </si>
   <si>
+    <t>Аудах</t>
+  </si>
+  <si>
+    <t>Никита</t>
+  </si>
+  <si>
     <t>ВМ</t>
-  </si>
-  <si>
-    <t>Аудах</t>
-  </si>
-  <si>
-    <t>Никита</t>
   </si>
   <si>
     <t>Procariota</t>
@@ -447,9 +447,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-* #\,##0\ &quot;₽&quot;_-;\-* #\,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\,##0.00_-;\-* #\,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\,##0_-;\-* #\,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #\,##0_-;\-* #\,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\,##0\ &quot;₽&quot;_-;\-* #\,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\,##0.00_-;\-* #\,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\,##0.00\ &quot;₽&quot;_-;\-* #\,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="dd\.mmm"/>
   </numFmts>
@@ -482,14 +482,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -504,39 +551,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -550,7 +573,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -566,36 +588,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -604,10 +596,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -617,6 +610,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -645,187 +645,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -854,21 +854,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -878,11 +863,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -922,32 +928,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -956,67 +956,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1025,79 +1025,79 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1441,9 +1441,9 @@
   <dimension ref="A1:Y65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Y29" sqref="Y29"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1451,13 +1451,13 @@
     <col min="1" max="1" width="14.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="17.2222222222222" customWidth="1"/>
-    <col min="4" max="4" width="8.88888888888889" hidden="1" customWidth="1"/>
-    <col min="5" max="6" width="7.22222222222222" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="3.66666666666667" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="2.66666666666667" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="8.88888888888889" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="10.4444444444444" hidden="1" customWidth="1"/>
-    <col min="12" max="13" width="8.88888888888889" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88888888888889" customWidth="1"/>
+    <col min="5" max="6" width="7.22222222222222" customWidth="1"/>
+    <col min="7" max="7" width="3.66666666666667" customWidth="1"/>
+    <col min="8" max="9" width="2.66666666666667" customWidth="1"/>
+    <col min="10" max="10" width="8.88888888888889" customWidth="1"/>
+    <col min="11" max="11" width="10.4444444444444" customWidth="1"/>
+    <col min="12" max="13" width="8.88888888888889" customWidth="1"/>
     <col min="15" max="15" width="16.2222222222222" customWidth="1"/>
     <col min="18" max="18" width="2.66666666666667" customWidth="1"/>
     <col min="19" max="21" width="3.66666666666667" customWidth="1"/>
@@ -1509,33 +1509,31 @@
         <v>44863</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" hidden="1" spans="1:14">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="C2" s="3"/>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="N2">
         <f>SUBTOTAL(9,D2:M2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1598,7 +1596,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1643,7 +1641,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1781,7 +1779,7 @@
         <v>27</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1817,7 +1815,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1874,7 +1872,7 @@
         <v>31</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1934,7 +1932,7 @@
         <v>35</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1970,7 +1968,7 @@
         <v>37</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2027,7 +2025,7 @@
         <v>39</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2069,7 +2067,7 @@
         <v>41</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2123,7 +2121,7 @@
         <v>43</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2186,7 +2184,7 @@
         <v>25</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -2228,7 +2226,7 @@
         <v>48</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2297,7 +2295,7 @@
         <v>51</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2345,7 +2343,7 @@
         <v>52</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2402,7 +2400,7 @@
         <v>56</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2444,7 +2442,7 @@
         <v>58</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -2522,7 +2520,7 @@
         <v>62</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="X29">
         <v>1</v>
@@ -2790,7 +2788,7 @@
         <v>105</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
         <v>101</v>

--- a/Рабочие материалы/Реальные группы 2022-2023/Новички 2022.xlsx
+++ b/Рабочие материалы/Реальные группы 2022-2023/Новички 2022.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$L$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$L$30</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="124">
   <si>
     <t>Фамилия</t>
   </si>
@@ -446,12 +446,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-* #\,##0_-;\-* #\,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\,##0\ &quot;₽&quot;_-;\-* #\,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\,##0.00_-;\-* #\,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\,##0.00\ &quot;₽&quot;_-;\-* #\,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="dd\.mmm"/>
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="_-* #\,##0.00\ &quot;₽&quot;_-;\-* #\,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\,##0.00_-;\-* #\,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\,##0\ &quot;₽&quot;_-;\-* #\,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="dd\.mmm"/>
+    <numFmt numFmtId="180" formatCode="_-* #\,##0_-;\-* #\,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="181" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -474,10 +475,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -488,16 +498,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,22 +529,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -537,6 +546,14 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -559,22 +576,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -588,22 +598,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -612,7 +606,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -645,187 +646,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -854,30 +855,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -897,17 +874,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -931,8 +897,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -951,161 +917,196 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1117,6 +1118,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1438,12 +1442,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Y65"/>
+  <dimension ref="A1:AA66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B29"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1462,10 +1464,11 @@
     <col min="18" max="18" width="2.66666666666667" customWidth="1"/>
     <col min="19" max="21" width="3.66666666666667" customWidth="1"/>
     <col min="23" max="23" width="2.66666666666667" customWidth="1"/>
-    <col min="25" max="25" width="2.66666666666667" customWidth="1"/>
+    <col min="25" max="26" width="2.66666666666667" customWidth="1"/>
+    <col min="27" max="27" width="10.8888888888889"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" ht="24" customHeight="1" spans="1:27">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1507,6 +1510,9 @@
       </c>
       <c r="X1" s="1">
         <v>44863</v>
+      </c>
+      <c r="AA1" s="9">
+        <v>44877</v>
       </c>
     </row>
     <row r="2" hidden="1" spans="1:14">
@@ -1525,7 +1531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:27">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1587,8 +1593,14 @@
       <c r="X3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="Z3">
+        <v>5</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1632,8 +1644,11 @@
       <c r="X4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="AA4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1683,6 +1698,9 @@
       <c r="X5">
         <v>1</v>
       </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" hidden="1" spans="1:21">
       <c r="A6" s="2" t="s">
@@ -1771,7 +1789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:27">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -1806,8 +1824,11 @@
       <c r="X11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:24">
+      <c r="AA11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
@@ -1863,8 +1884,11 @@
       <c r="X12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:24">
+      <c r="AA12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
@@ -1908,6 +1932,9 @@
       <c r="X13">
         <v>1</v>
       </c>
+      <c r="AA13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" hidden="1" spans="1:21">
       <c r="A14" s="2" t="s">
@@ -1924,7 +1951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:27">
       <c r="A15" s="2" t="s">
         <v>34</v>
       </c>
@@ -1959,8 +1986,11 @@
       <c r="X15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:24">
+      <c r="AA15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" s="2" t="s">
         <v>36</v>
       </c>
@@ -2016,6 +2046,9 @@
       <c r="X16">
         <v>1</v>
       </c>
+      <c r="AA16">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="2" t="s">
@@ -2176,7 +2209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:27">
       <c r="A21" s="2" t="s">
         <v>46</v>
       </c>
@@ -2217,8 +2250,11 @@
       <c r="X21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:24">
+      <c r="AA21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" s="2" t="s">
         <v>47</v>
       </c>
@@ -2286,8 +2322,11 @@
       <c r="X22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="Z22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
       <c r="A23" s="2" t="s">
         <v>50</v>
       </c>
@@ -2334,8 +2373,14 @@
       <c r="W23">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" ht="15.15" spans="1:24">
+      <c r="Z23">
+        <v>5</v>
+      </c>
+      <c r="AA23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
       <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
@@ -2373,15 +2418,20 @@
       <c r="X24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" ht="15.15" hidden="1" spans="1:21">
+      <c r="AA24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" ht="15.15" spans="1:21">
       <c r="A25" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="D25">
         <v>1</v>
       </c>
@@ -2392,7 +2442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" ht="15.15" spans="1:22">
+    <row r="26" ht="15.15" spans="1:27">
       <c r="A26" s="4" t="s">
         <v>55</v>
       </c>
@@ -2433,8 +2483,11 @@
       <c r="V26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:25">
+      <c r="AA26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
       <c r="A27" s="5" t="s">
         <v>57</v>
       </c>
@@ -2484,15 +2537,23 @@
       <c r="Y27">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" hidden="1" spans="1:24">
+      <c r="Z27">
+        <v>5</v>
+      </c>
+      <c r="AA27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
       <c r="A28" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="Q28">
         <v>1</v>
       </c>
@@ -2511,8 +2572,11 @@
       <c r="X28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:24">
+      <c r="AA28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
       <c r="A29" s="2" t="s">
         <v>61</v>
       </c>
@@ -2525,28 +2589,25 @@
       <c r="X29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="AA29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" hidden="1" spans="1:3">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" t="s">
-        <v>65</v>
-      </c>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C32" t="s">
         <v>65</v>
@@ -2554,10 +2615,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s">
         <v>65</v>
@@ -2565,10 +2626,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C34" t="s">
         <v>65</v>
@@ -2576,10 +2637,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C35" t="s">
         <v>65</v>
@@ -2587,10 +2648,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C36" t="s">
         <v>65</v>
@@ -2598,10 +2659,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C37" t="s">
         <v>65</v>
@@ -2609,10 +2670,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="C38" t="s">
         <v>65</v>
@@ -2620,10 +2681,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="C39" t="s">
         <v>65</v>
@@ -2631,10 +2692,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C40" t="s">
         <v>65</v>
@@ -2642,10 +2703,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="C41" t="s">
         <v>65</v>
@@ -2653,10 +2714,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="C42" t="s">
         <v>65</v>
@@ -2664,10 +2725,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C43" t="s">
         <v>65</v>
@@ -2675,10 +2736,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C44" t="s">
         <v>65</v>
@@ -2686,10 +2747,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="C45" t="s">
         <v>65</v>
@@ -2697,10 +2758,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="C46" t="s">
         <v>65</v>
@@ -2708,10 +2769,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C47" t="s">
         <v>65</v>
@@ -2719,10 +2780,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C48" t="s">
         <v>65</v>
@@ -2730,43 +2791,43 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C49" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>99</v>
+      <c r="A50" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="C50" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>39</v>
+      <c r="A51" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="C51" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="C52" t="s">
         <v>101</v>
@@ -2774,10 +2835,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="C53" t="s">
         <v>101</v>
@@ -2785,10 +2846,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="C54" t="s">
         <v>101</v>
@@ -2796,10 +2857,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
         <v>101</v>
@@ -2807,10 +2868,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="C56" t="s">
         <v>101</v>
@@ -2818,10 +2879,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="C57" t="s">
         <v>101</v>
@@ -2829,10 +2890,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="C58" t="s">
         <v>101</v>
@@ -2840,10 +2901,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C59" t="s">
         <v>101</v>
@@ -2851,10 +2912,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="C60" t="s">
         <v>101</v>
@@ -2862,10 +2923,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C61" t="s">
         <v>101</v>
@@ -2873,10 +2934,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="C62" t="s">
         <v>101</v>
@@ -2884,10 +2945,10 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C63" t="s">
         <v>101</v>
@@ -2895,10 +2956,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C64" t="s">
         <v>101</v>
@@ -2906,17 +2967,28 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C65" t="s">
         <v>101</v>
       </c>
     </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C66" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L29">
+  <autoFilter ref="A1:L30">
     <filterColumn colId="2">
       <filters>
         <filter val="ВМ"/>

--- a/Рабочие материалы/Реальные группы 2022-2023/Новички 2022.xlsx
+++ b/Рабочие материалы/Реальные группы 2022-2023/Новички 2022.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$L$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$L$29</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="123">
   <si>
     <t>Фамилия</t>
   </si>
@@ -37,6 +37,9 @@
     <t>Уровень</t>
   </si>
   <si>
+    <t>Зачет</t>
+  </si>
+  <si>
     <t>Абдраманов</t>
   </si>
   <si>
@@ -176,12 +179,6 @@
   </si>
   <si>
     <t>Соня</t>
-  </si>
-  <si>
-    <t>Пучик</t>
-  </si>
-  <si>
-    <t>Дарья</t>
   </si>
   <si>
     <t>Мелия</t>
@@ -447,10 +444,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_-* #\,##0.00\ &quot;₽&quot;_-;\-* #\,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\,##0.00_-;\-* #\,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="dd\.mmm"/>
+    <numFmt numFmtId="177" formatCode="_-* #\,##0.00\ &quot;₽&quot;_-;\-* #\,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #\,##0\ &quot;₽&quot;_-;\-* #\,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="dd\.mmm"/>
+    <numFmt numFmtId="179" formatCode="_-* #\,##0.00_-;\-* #\,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="_-* #\,##0_-;\-* #\,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="181" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
@@ -475,46 +472,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -535,56 +494,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -605,6 +523,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -612,6 +608,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -646,12 +643,114 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -664,25 +763,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,12 +781,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -712,109 +793,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,6 +852,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -866,15 +892,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -894,15 +911,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -914,6 +922,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -932,131 +949,102 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1065,40 +1053,49 @@
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1106,7 +1103,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1442,10 +1439,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AA66"/>
+  <dimension ref="A1:AE65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozenSplit"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="AG16" sqref="AG16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1465,10 +1466,12 @@
     <col min="19" max="21" width="3.66666666666667" customWidth="1"/>
     <col min="23" max="23" width="2.66666666666667" customWidth="1"/>
     <col min="25" max="26" width="2.66666666666667" customWidth="1"/>
-    <col min="27" max="27" width="10.8888888888889"/>
+    <col min="27" max="28" width="10.8888888888889"/>
+    <col min="29" max="30" width="6.33333333333333" customWidth="1"/>
+    <col min="31" max="31" width="2.66666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" customHeight="1" spans="1:27">
+    <row r="1" ht="24" customHeight="1" spans="1:30">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1514,13 +1517,22 @@
       <c r="AA1" s="9">
         <v>44877</v>
       </c>
+      <c r="AB1" s="9">
+        <v>44884</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" hidden="1" spans="1:14">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3"/>
       <c r="J2">
@@ -1531,15 +1543,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:30">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1573,7 +1585,7 @@
         <v>26</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q3">
         <v>1</v>
@@ -1599,16 +1611,25 @@
       <c r="AA3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3">
+        <v>5</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1647,16 +1668,25 @@
       <c r="AA4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AC4">
+        <v>-1</v>
+      </c>
+      <c r="AD4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1672,7 +1702,7 @@
         <v>23</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P5">
         <v>5</v>
@@ -1701,13 +1731,22 @@
       <c r="AA5">
         <v>1</v>
       </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+      <c r="AC5">
+        <v>3</v>
+      </c>
+      <c r="AD5">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" hidden="1" spans="1:21">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6">
@@ -1722,10 +1761,10 @@
     </row>
     <row r="7" hidden="1" spans="1:21">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7">
@@ -1740,10 +1779,10 @@
     </row>
     <row r="8" hidden="1" spans="1:21">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="3"/>
       <c r="S8">
@@ -1755,10 +1794,10 @@
     </row>
     <row r="9" hidden="1" spans="1:21">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9">
@@ -1773,10 +1812,10 @@
     </row>
     <row r="10" hidden="1" spans="1:21">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10">
@@ -1789,15 +1828,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:29">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1827,16 +1866,22 @@
       <c r="AA11">
         <v>1</v>
       </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AC11">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1864,7 +1909,7 @@
         <v>25</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q12">
         <v>1</v>
@@ -1888,15 +1933,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:28">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1935,13 +1980,16 @@
       <c r="AA13">
         <v>1</v>
       </c>
+      <c r="AB13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" hidden="1" spans="1:21">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" s="3"/>
       <c r="S14">
@@ -1953,13 +2001,13 @@
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1990,15 +2038,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:30">
       <c r="A16" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2049,16 +2097,25 @@
       <c r="AA16">
         <v>1</v>
       </c>
+      <c r="AB16">
+        <v>1</v>
+      </c>
+      <c r="AC16">
+        <v>-1</v>
+      </c>
+      <c r="AD16">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2094,13 +2151,13 @@
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2148,13 +2205,13 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2191,15 +2248,15 @@
         <v>27</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" hidden="1" spans="1:21">
       <c r="A20" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" s="3"/>
       <c r="S20">
@@ -2209,15 +2266,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:31">
       <c r="A21" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -2253,16 +2310,28 @@
       <c r="AA21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:26">
+      <c r="AB21">
+        <v>1</v>
+      </c>
+      <c r="AC21">
+        <v>3</v>
+      </c>
+      <c r="AD21">
+        <v>4</v>
+      </c>
+      <c r="AE21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
       <c r="A22" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2296,7 +2365,7 @@
         <v>31</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -2325,16 +2394,25 @@
       <c r="Z22">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:27">
+      <c r="AB22">
+        <v>1</v>
+      </c>
+      <c r="AC22">
+        <v>5</v>
+      </c>
+      <c r="AD22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30">
       <c r="A23" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2379,16 +2457,25 @@
       <c r="AA23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:27">
+      <c r="AB23">
+        <v>1</v>
+      </c>
+      <c r="AC23">
+        <v>-3</v>
+      </c>
+      <c r="AD23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" ht="15.15" spans="1:27">
       <c r="A24" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2422,152 +2509,176 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" ht="15.15" spans="1:21">
-      <c r="A25" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="2" t="s">
+    <row r="25" ht="15.15" spans="1:30">
+      <c r="A25" s="4" t="s">
         <v>54</v>
       </c>
+      <c r="B25" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="C25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25">
+        <v>11</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>-1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="N25">
+        <f>SUBTOTAL(9,D25:M25)</f>
+        <v>6</v>
+      </c>
+      <c r="Q25">
         <v>1</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>-2</v>
+      </c>
+      <c r="T25">
+        <v>-1</v>
       </c>
       <c r="U25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" ht="15.15" spans="1:27">
-      <c r="A26" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="4" t="s">
+        <v>-2</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="AA25">
+        <v>1</v>
+      </c>
+      <c r="AB25">
+        <v>1</v>
+      </c>
+      <c r="AC25">
+        <v>-3</v>
+      </c>
+      <c r="AD25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30">
+      <c r="A26" s="5" t="s">
         <v>56</v>
       </c>
+      <c r="B26" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="C26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>-1</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>-5</v>
       </c>
       <c r="N26">
         <f>SUBTOTAL(9,D26:M26)</f>
-        <v>6</v>
+        <v>-3</v>
       </c>
       <c r="Q26">
         <v>1</v>
       </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
       <c r="S26">
+        <v>-3</v>
+      </c>
+      <c r="T26">
+        <v>-4</v>
+      </c>
+      <c r="U26">
+        <v>-4</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <v>5</v>
+      </c>
+      <c r="X26">
+        <v>1</v>
+      </c>
+      <c r="Y26">
+        <v>5</v>
+      </c>
+      <c r="Z26">
+        <v>5</v>
+      </c>
+      <c r="AA26">
+        <v>1</v>
+      </c>
+      <c r="AB26">
+        <v>1</v>
+      </c>
+      <c r="AC26">
+        <v>-3</v>
+      </c>
+      <c r="AD26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30">
+      <c r="A27" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <v>-4</v>
+      </c>
+      <c r="T27">
+        <v>-1</v>
+      </c>
+      <c r="U27">
         <v>-2</v>
       </c>
-      <c r="T26">
-        <v>-1</v>
-      </c>
-      <c r="U26">
-        <v>-2</v>
-      </c>
-      <c r="V26">
-        <v>1</v>
-      </c>
-      <c r="AA26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27">
-      <c r="A27" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>-5</v>
-      </c>
-      <c r="N27">
-        <f>SUBTOTAL(9,D27:M27)</f>
-        <v>-3</v>
-      </c>
-      <c r="Q27">
-        <v>1</v>
-      </c>
-      <c r="R27">
-        <v>1</v>
-      </c>
-      <c r="S27">
-        <v>-3</v>
-      </c>
-      <c r="T27">
-        <v>-4</v>
-      </c>
-      <c r="U27">
-        <v>-4</v>
-      </c>
       <c r="V27">
         <v>1</v>
       </c>
-      <c r="W27">
-        <v>5</v>
-      </c>
       <c r="X27">
         <v>1</v>
       </c>
-      <c r="Y27">
-        <v>5</v>
-      </c>
-      <c r="Z27">
-        <v>5</v>
-      </c>
       <c r="AA27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:27">
-      <c r="A28" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="5" t="s">
+      <c r="AB27">
+        <v>1</v>
+      </c>
+      <c r="AC27">
+        <v>1</v>
+      </c>
+      <c r="AD27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30">
+      <c r="A28" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="B28" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="C28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q28">
-        <v>1</v>
-      </c>
-      <c r="S28">
-        <v>-4</v>
-      </c>
-      <c r="T28">
-        <v>-1</v>
-      </c>
-      <c r="U28">
-        <v>-2</v>
-      </c>
-      <c r="V28">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="X28">
         <v>1</v>
@@ -2575,64 +2686,67 @@
       <c r="AA28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:27">
-      <c r="A29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="X29">
-        <v>1</v>
-      </c>
-      <c r="AA29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" hidden="1" spans="1:3">
+      <c r="AB28">
+        <v>1</v>
+      </c>
+      <c r="AC28">
+        <v>1</v>
+      </c>
+      <c r="AD28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" hidden="1" spans="1:3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s">
         <v>64</v>
-      </c>
-      <c r="C32" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2640,43 +2754,43 @@
         <v>70</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2684,32 +2798,32 @@
         <v>77</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="C39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="C41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2717,43 +2831,43 @@
         <v>82</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="C42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="C45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2761,76 +2875,76 @@
         <v>89</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="C46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B50" s="2" t="s">
+      <c r="A50" s="6" t="s">
         <v>97</v>
       </c>
+      <c r="B50" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="C50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B51" s="6" t="s">
+      <c r="A51" s="2" t="s">
         <v>99</v>
       </c>
+      <c r="B51" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="C51" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" t="s">
         <v>100</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C52" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2838,21 +2952,21 @@
         <v>102</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="C53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="C54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2860,21 +2974,21 @@
         <v>105</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="C55" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="C56" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2882,21 +2996,21 @@
         <v>108</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="C57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2904,21 +3018,21 @@
         <v>111</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="C59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="C60" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2926,10 +3040,10 @@
         <v>114</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2937,62 +3051,51 @@
         <v>115</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="C62" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C65" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C66" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L30">
+  <autoFilter ref="A1:L29">
     <filterColumn colId="2">
-      <filters>
-        <filter val="ВМ"/>
-      </filters>
+      <customFilters>
+        <customFilter operator="equal" val="ВМ"/>
+      </customFilters>
     </filterColumn>
     <extLst/>
   </autoFilter>

--- a/Рабочие материалы/Реальные группы 2022-2023/Новички 2022.xlsx
+++ b/Рабочие материалы/Реальные группы 2022-2023/Новички 2022.xlsx
@@ -444,9 +444,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="dd\.mmm"/>
-    <numFmt numFmtId="177" formatCode="_-* #\,##0.00\ &quot;₽&quot;_-;\-* #\,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\,##0\ &quot;₽&quot;_-;\-* #\,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #\,##0\ &quot;₽&quot;_-;\-* #\,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="dd\.mmm"/>
+    <numFmt numFmtId="178" formatCode="_-* #\,##0.00\ &quot;₽&quot;_-;\-* #\,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\,##0.00_-;\-* #\,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="_-* #\,##0_-;\-* #\,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="181" formatCode="dd\.mm\.yyyy"/>
@@ -473,28 +473,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -508,18 +486,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -539,6 +510,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -549,14 +549,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -608,9 +609,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -643,13 +643,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,169 +817,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -848,15 +848,6 @@
       </top>
       <bottom style="medium">
         <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -892,6 +883,30 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -934,72 +949,57 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1011,91 +1011,91 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1103,7 +1103,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1439,14 +1439,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AE65"/>
+  <dimension ref="A1:AF65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG16" sqref="AG16"/>
+      <selection pane="bottomRight" activeCell="AG3" sqref="AG3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1469,9 +1469,10 @@
     <col min="27" max="28" width="10.8888888888889"/>
     <col min="29" max="30" width="6.33333333333333" customWidth="1"/>
     <col min="31" max="31" width="2.66666666666667" customWidth="1"/>
+    <col min="32" max="32" width="10.8888888888889"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" customHeight="1" spans="1:30">
+    <row r="1" ht="24" customHeight="1" spans="1:32">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1525,6 +1526,9 @@
       </c>
       <c r="AD1" t="s">
         <v>6</v>
+      </c>
+      <c r="AF1" s="9">
+        <v>44891</v>
       </c>
     </row>
     <row r="2" hidden="1" spans="1:14">
@@ -1543,7 +1547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:32">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1620,8 +1624,11 @@
       <c r="AD3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:30">
+      <c r="AF3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1677,8 +1684,11 @@
       <c r="AD4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:30">
+      <c r="AF4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -1740,6 +1750,9 @@
       <c r="AD5">
         <v>4</v>
       </c>
+      <c r="AF5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" hidden="1" spans="1:21">
       <c r="A6" s="2" t="s">
@@ -1828,7 +1841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:32">
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
@@ -1872,8 +1885,11 @@
       <c r="AC11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AF11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
@@ -1932,8 +1948,11 @@
       <c r="AA12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:28">
+      <c r="AF12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32">
       <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
@@ -1983,6 +2002,9 @@
       <c r="AB13">
         <v>1</v>
       </c>
+      <c r="AF13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" hidden="1" spans="1:21">
       <c r="A14" s="2" t="s">
@@ -1999,7 +2021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:32">
       <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
@@ -2037,8 +2059,11 @@
       <c r="AA15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:30">
+      <c r="AF15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32">
       <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
@@ -2106,8 +2131,11 @@
       <c r="AD16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:25">
+      <c r="AF16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32">
       <c r="A17" s="2" t="s">
         <v>39</v>
       </c>
@@ -2148,6 +2176,9 @@
       <c r="Y17">
         <v>5</v>
       </c>
+      <c r="AF17">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="2" t="s">
@@ -2298,7 +2329,7 @@
         <v>5</v>
       </c>
       <c r="N21">
-        <f>SUBTOTAL(9,D21:M21)</f>
+        <f t="shared" ref="N21:N26" si="0">SUBTOTAL(9,D21:M21)</f>
         <v>8</v>
       </c>
       <c r="V21">
@@ -2323,7 +2354,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:32">
       <c r="A22" s="2" t="s">
         <v>48</v>
       </c>
@@ -2361,7 +2392,7 @@
         <v>22</v>
       </c>
       <c r="N22" s="8">
-        <f>SUBTOTAL(9,D22:M22)</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="O22" s="8" t="s">
@@ -2403,8 +2434,11 @@
       <c r="AD22">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:30">
+      <c r="AF22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32">
       <c r="A23" s="2" t="s">
         <v>51</v>
       </c>
@@ -2430,7 +2464,7 @@
         <v>5</v>
       </c>
       <c r="N23">
-        <f>SUBTOTAL(9,D23:M23)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="Q23">
@@ -2466,8 +2500,11 @@
       <c r="AD23">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" ht="15.15" spans="1:27">
+      <c r="AF23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" ht="15.15" spans="1:32">
       <c r="A24" s="2" t="s">
         <v>15</v>
       </c>
@@ -2487,7 +2524,7 @@
         <v>1</v>
       </c>
       <c r="N24">
-        <f>SUBTOTAL(9,D24:M24)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="Q24">
@@ -2508,8 +2545,11 @@
       <c r="AA24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" ht="15.15" spans="1:30">
+      <c r="AF24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32">
       <c r="A25" s="4" t="s">
         <v>54</v>
       </c>
@@ -2532,7 +2572,7 @@
         <v>5</v>
       </c>
       <c r="N25">
-        <f>SUBTOTAL(9,D25:M25)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="Q25">
@@ -2562,8 +2602,11 @@
       <c r="AD25">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:30">
+      <c r="AF25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32">
       <c r="A26" s="5" t="s">
         <v>56</v>
       </c>
@@ -2583,7 +2626,7 @@
         <v>-5</v>
       </c>
       <c r="N26">
-        <f>SUBTOTAL(9,D26:M26)</f>
+        <f t="shared" si="0"/>
         <v>-3</v>
       </c>
       <c r="Q26">
@@ -2626,6 +2669,9 @@
         <v>-3</v>
       </c>
       <c r="AD26">
+        <v>1</v>
+      </c>
+      <c r="AF26">
         <v>1</v>
       </c>
     </row>

--- a/Рабочие материалы/Реальные группы 2022-2023/Новички 2022.xlsx
+++ b/Рабочие материалы/Реальные группы 2022-2023/Новички 2022.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9264"/>
+    <workbookView windowWidth="22368" windowHeight="9264"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="125">
   <si>
     <t>Фамилия</t>
   </si>
@@ -40,6 +40,9 @@
     <t>Зачет</t>
   </si>
   <si>
+    <t>Эволюционная ступень</t>
+  </si>
+  <si>
     <t>Абдраманов</t>
   </si>
   <si>
@@ -58,6 +61,9 @@
     <t>Procariota</t>
   </si>
   <si>
+    <t>Spongia</t>
+  </si>
+  <si>
     <t>Афиногентов</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>Олеся</t>
   </si>
   <si>
+    <t>Choanoflagellata</t>
+  </si>
+  <si>
     <t>Божко</t>
   </si>
   <si>
@@ -167,9 +176,6 @@
   </si>
   <si>
     <t>Родион</t>
-  </si>
-  <si>
-    <t>Choanoflagellata</t>
   </si>
   <si>
     <t>Константинов</t>
@@ -444,11 +450,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_-* #\,##0\ &quot;₽&quot;_-;\-* #\,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="dd\.mmm"/>
-    <numFmt numFmtId="178" formatCode="_-* #\,##0.00\ &quot;₽&quot;_-;\-* #\,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\,##0.00_-;\-* #\,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_-* #\,##0_-;\-* #\,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #\,##0_-;\-* #\,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\,##0.00\ &quot;₽&quot;_-;\-* #\,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="dd\.mmm"/>
+    <numFmt numFmtId="179" formatCode="_-* #\,##0\ &quot;₽&quot;_-;\-* #\,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_-* #\,##0.00_-;\-* #\,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="181" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
   <fonts count="22">
@@ -486,17 +492,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -510,6 +507,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -519,21 +524,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -550,6 +548,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -578,14 +584,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -609,8 +607,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -643,7 +649,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,13 +697,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,19 +757,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,31 +775,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,97 +805,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -848,26 +854,6 @@
       </top>
       <bottom style="medium">
         <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -896,17 +882,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -949,161 +931,185 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1118,6 +1124,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1439,14 +1448,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AF65"/>
+  <dimension ref="A1:AI65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="Y3" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG3" sqref="AG3"/>
+      <selection pane="bottomRight" activeCell="AJ12" sqref="AJ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1469,10 +1478,11 @@
     <col min="27" max="28" width="10.8888888888889"/>
     <col min="29" max="30" width="6.33333333333333" customWidth="1"/>
     <col min="31" max="31" width="2.66666666666667" customWidth="1"/>
-    <col min="32" max="32" width="10.8888888888889"/>
+    <col min="32" max="33" width="10.8888888888889"/>
+    <col min="35" max="35" width="24.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" customHeight="1" spans="1:32">
+    <row r="1" ht="24" customHeight="1" spans="1:35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1530,13 +1540,22 @@
       <c r="AF1" s="9">
         <v>44891</v>
       </c>
+      <c r="AG1" s="9">
+        <v>44898</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" hidden="1" spans="1:14">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3"/>
       <c r="J2">
@@ -1547,15 +1566,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:35">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1589,7 +1608,7 @@
         <v>26</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q3">
         <v>1</v>
@@ -1627,16 +1646,26 @@
       <c r="AF3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:32">
+      <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="10">
+        <f>SUM(Q3:AG3)+N3</f>
+        <v>40</v>
+      </c>
+      <c r="AI3" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1687,16 +1716,26 @@
       <c r="AF4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:32">
+      <c r="AG4">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="10">
+        <f>SUM(Q4:AG4)+N4</f>
+        <v>6</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1712,7 +1751,7 @@
         <v>23</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P5">
         <v>5</v>
@@ -1753,13 +1792,23 @@
       <c r="AF5">
         <v>1</v>
       </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="10">
+        <f>SUM(Q5:AG5)+N5</f>
+        <v>34</v>
+      </c>
+      <c r="AI5" s="8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" hidden="1" spans="1:21">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6">
@@ -1774,10 +1823,10 @@
     </row>
     <row r="7" hidden="1" spans="1:21">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7">
@@ -1792,10 +1841,10 @@
     </row>
     <row r="8" hidden="1" spans="1:21">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" s="3"/>
       <c r="S8">
@@ -1807,10 +1856,10 @@
     </row>
     <row r="9" hidden="1" spans="1:21">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9">
@@ -1825,10 +1874,10 @@
     </row>
     <row r="10" hidden="1" spans="1:21">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10">
@@ -1841,15 +1890,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:35">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1888,16 +1937,26 @@
       <c r="AF11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:32">
+      <c r="AG11">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="10">
+        <f>SUM(Q11:AG11)+N11</f>
+        <v>14</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1925,7 +1984,7 @@
         <v>25</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q12">
         <v>1</v>
@@ -1951,16 +2010,23 @@
       <c r="AF12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:32">
+      <c r="AH12" s="10">
+        <f>SUM(Q12:AG12)+N12</f>
+        <v>22</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35">
       <c r="A13" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2005,13 +2071,20 @@
       <c r="AF13">
         <v>1</v>
       </c>
+      <c r="AH13" s="10">
+        <f>SUM(Q13:AG13)+N13</f>
+        <v>8</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" hidden="1" spans="1:21">
       <c r="A14" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C14" s="3"/>
       <c r="S14">
@@ -2021,15 +2094,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:35">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2062,16 +2135,23 @@
       <c r="AF15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:32">
+      <c r="AH15" s="10">
+        <f>SUM(Q15:AG15)+N15</f>
+        <v>11</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2134,16 +2214,26 @@
       <c r="AF16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:32">
+      <c r="AG16">
+        <v>1</v>
+      </c>
+      <c r="AH16" s="10">
+        <f>SUM(Q16:AG16)+N16</f>
+        <v>21</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35">
       <c r="A17" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2179,16 +2269,26 @@
       <c r="AF17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:25">
+      <c r="AG17">
+        <v>1</v>
+      </c>
+      <c r="AH17" s="10">
+        <f>SUM(Q17:AG17)+N17</f>
+        <v>12</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35">
       <c r="A18" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2233,16 +2333,23 @@
       <c r="Y18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="AH18" s="10">
+        <f>SUM(Q18:AG18)+N18</f>
+        <v>19</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35">
       <c r="A19" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2279,15 +2386,22 @@
         <v>27</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="AH19" s="10">
+        <f>SUM(Q19:AG19)+N19</f>
+        <v>27</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="20" hidden="1" spans="1:21">
       <c r="A20" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C20" s="3"/>
       <c r="S20">
@@ -2297,15 +2411,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:35">
       <c r="A21" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -2353,16 +2467,26 @@
       <c r="AE21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:32">
+      <c r="AG21">
+        <v>1</v>
+      </c>
+      <c r="AH21" s="10">
+        <f t="shared" ref="AH21:AH28" si="1">SUM(Q21:AG21)+N21</f>
+        <v>25</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35">
       <c r="A22" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2396,7 +2520,7 @@
         <v>31</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -2437,16 +2561,26 @@
       <c r="AF22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:32">
+      <c r="AG22">
+        <v>1</v>
+      </c>
+      <c r="AH22" s="10">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="AI22" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2503,16 +2637,26 @@
       <c r="AF23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" ht="15.15" spans="1:32">
+      <c r="AG23">
+        <v>1</v>
+      </c>
+      <c r="AH23" s="10">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" ht="15.15" spans="1:35">
       <c r="A24" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2548,16 +2692,26 @@
       <c r="AF24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:32">
+      <c r="AG24">
+        <v>1</v>
+      </c>
+      <c r="AH24" s="10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" ht="15.15" spans="1:35">
       <c r="A25" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2605,16 +2759,26 @@
       <c r="AF25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:32">
+      <c r="AG25">
+        <v>1</v>
+      </c>
+      <c r="AH25" s="10">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35">
       <c r="A26" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -2674,16 +2838,23 @@
       <c r="AF26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:30">
+      <c r="AH26" s="10">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35">
       <c r="A27" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -2715,16 +2886,23 @@
       <c r="AD27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:30">
+      <c r="AH27" s="10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35">
       <c r="A28" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X28">
         <v>1</v>
@@ -2740,6 +2918,16 @@
       </c>
       <c r="AD28">
         <v>4</v>
+      </c>
+      <c r="AG28">
+        <v>1</v>
+      </c>
+      <c r="AH28" s="10">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="29" hidden="1" spans="1:3">
@@ -2753,387 +2941,387 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" t="s">
         <v>66</v>
-      </c>
-      <c r="C32" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C35" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C38" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C40" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C41" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C42" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C44" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C45" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C46" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C47" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C48" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C49" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C50" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C51" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C52" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" t="s">
         <v>102</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C53" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C55" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C57" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C58" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C59" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C60" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C61" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C62" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C63" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C64" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C65" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/Рабочие материалы/Реальные группы 2022-2023/Новички 2022.xlsx
+++ b/Рабочие материалы/Реальные группы 2022-2023/Новички 2022.xlsx
@@ -450,10 +450,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_-* #\,##0_-;\-* #\,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="dd\.mmm"/>
     <numFmt numFmtId="177" formatCode="_-* #\,##0.00\ &quot;₽&quot;_-;\-* #\,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="dd\.mmm"/>
-    <numFmt numFmtId="179" formatCode="_-* #\,##0\ &quot;₽&quot;_-;\-* #\,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\,##0\ &quot;₽&quot;_-;\-* #\,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\,##0_-;\-* #\,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="_-* #\,##0.00_-;\-* #\,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="181" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
@@ -478,6 +478,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -486,7 +494,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -501,37 +532,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -545,19 +546,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -570,38 +571,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -649,7 +649,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,7 +679,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,7 +751,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,13 +811,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,133 +823,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -858,17 +858,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -876,8 +885,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -909,39 +918,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -955,153 +931,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1109,7 +1109,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1448,14 +1448,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AI65"/>
+  <dimension ref="A1:AJ65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Y3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AB3" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AJ12" sqref="AJ12"/>
+      <selection pane="bottomRight" activeCell="AK11" sqref="AK11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1480,9 +1480,10 @@
     <col min="31" max="31" width="2.66666666666667" customWidth="1"/>
     <col min="32" max="33" width="10.8888888888889"/>
     <col min="35" max="35" width="24.4444444444444" customWidth="1"/>
+    <col min="36" max="36" width="10.8888888888889"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" customHeight="1" spans="1:35">
+    <row r="1" ht="24" customHeight="1" spans="1:36">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1548,6 +1549,9 @@
       </c>
       <c r="AI1" t="s">
         <v>7</v>
+      </c>
+      <c r="AJ1" s="9">
+        <v>44947</v>
       </c>
     </row>
     <row r="2" hidden="1" spans="1:14">
@@ -1566,7 +1570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:36">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1656,8 +1660,11 @@
       <c r="AI3" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:35">
+      <c r="AJ3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1726,8 +1733,11 @@
       <c r="AI4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:35">
+      <c r="AJ4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1802,6 +1812,9 @@
       <c r="AI5" s="8" t="s">
         <v>19</v>
       </c>
+      <c r="AJ5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" hidden="1" spans="1:21">
       <c r="A6" s="2" t="s">
@@ -1890,7 +1903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35">
+    <row r="11" spans="1:36">
       <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
@@ -1947,8 +1960,11 @@
       <c r="AI11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:35">
+      <c r="AJ11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36">
       <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
@@ -2017,6 +2033,9 @@
       <c r="AI12" t="s">
         <v>13</v>
       </c>
+      <c r="AJ12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="2" t="s">
@@ -2143,7 +2162,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:35">
+    <row r="16" spans="1:36">
       <c r="A16" s="2" t="s">
         <v>40</v>
       </c>
@@ -2224,6 +2243,9 @@
       <c r="AI16" t="s">
         <v>13</v>
       </c>
+      <c r="AJ16">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="2" t="s">
@@ -2411,7 +2433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:35">
+    <row r="21" spans="1:36">
       <c r="A21" s="2" t="s">
         <v>50</v>
       </c>
@@ -2477,8 +2499,11 @@
       <c r="AI21" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:35">
+      <c r="AJ21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36">
       <c r="A22" s="2" t="s">
         <v>51</v>
       </c>
@@ -2571,8 +2596,11 @@
       <c r="AI22" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:35">
+      <c r="AJ22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36">
       <c r="A23" s="2" t="s">
         <v>53</v>
       </c>
@@ -2647,6 +2675,9 @@
       <c r="AI23" t="s">
         <v>13</v>
       </c>
+      <c r="AJ23">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" ht="15.15" spans="1:35">
       <c r="A24" s="2" t="s">
@@ -2703,7 +2734,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" ht="15.15" spans="1:35">
+    <row r="25" spans="1:36">
       <c r="A25" s="4" t="s">
         <v>56</v>
       </c>
@@ -2769,8 +2800,11 @@
       <c r="AI25" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="1:35">
+      <c r="AJ25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36">
       <c r="A26" s="5" t="s">
         <v>58</v>
       </c>
@@ -2845,8 +2879,11 @@
       <c r="AI26" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="27" spans="1:35">
+      <c r="AJ26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36">
       <c r="A27" s="5" t="s">
         <v>60</v>
       </c>
@@ -2893,8 +2930,11 @@
       <c r="AI27" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:35">
+      <c r="AJ27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36">
       <c r="A28" s="2" t="s">
         <v>62</v>
       </c>
@@ -2928,6 +2968,9 @@
       </c>
       <c r="AI28" t="s">
         <v>13</v>
+      </c>
+      <c r="AJ28">
+        <v>1</v>
       </c>
     </row>
     <row r="29" hidden="1" spans="1:3">

--- a/Рабочие материалы/Реальные группы 2022-2023/Новички 2022.xlsx
+++ b/Рабочие материалы/Реальные группы 2022-2023/Новички 2022.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9264"/>
+    <workbookView windowWidth="20400" windowHeight="7230"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="127">
   <si>
     <t>Фамилия</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t>Эволюционная ступень</t>
+  </si>
+  <si>
+    <t>Участие в мероприятиях</t>
+  </si>
+  <si>
+    <t>28.01.23</t>
   </si>
   <si>
     <t>Абдраманов</t>
@@ -450,12 +456,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="dd\.mmm"/>
-    <numFmt numFmtId="177" formatCode="_-* #\,##0.00\ &quot;₽&quot;_-;\-* #\,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\,##0\ &quot;₽&quot;_-;\-* #\,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\,##0_-;\-* #\,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_-* #\,##0.00_-;\-* #\,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="176" formatCode="dd,mm,yyyy"/>
+    <numFmt numFmtId="177" formatCode="dd,mmm"/>
+    <numFmt numFmtId="178" formatCode="_-* #\,##0.00_-;\-* #\,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\,##0\ &quot;₽&quot;_-;\-* #\,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_-* #\,##0.00\ &quot;₽&quot;_-;\-* #\,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="181" formatCode="_-* #\,##0_-;\-* #\,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -478,14 +484,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -493,15 +491,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -517,40 +509,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -562,16 +523,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -585,17 +539,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -615,12 +569,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -649,7 +655,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,7 +667,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,163 +829,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,7 +868,63 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -886,48 +948,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -940,168 +961,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1109,7 +1115,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1123,7 +1129,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1131,55 +1137,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="20% — Акцент3" xfId="1" builtinId="38"/>
-    <cellStyle name="Денежный [0]" xfId="2" builtinId="7"/>
-    <cellStyle name="40% — Акцент5" xfId="3" builtinId="47"/>
-    <cellStyle name="Хороший" xfId="4" builtinId="26"/>
-    <cellStyle name="Запятая [0]" xfId="5" builtinId="6"/>
-    <cellStyle name="Денежный" xfId="6" builtinId="4"/>
-    <cellStyle name="Запятая" xfId="7" builtinId="3"/>
-    <cellStyle name="40% — Акцент6" xfId="8" builtinId="51"/>
-    <cellStyle name="Процент" xfId="9" builtinId="5"/>
-    <cellStyle name="20% — Акцент2" xfId="10" builtinId="34"/>
-    <cellStyle name="Итого" xfId="11" builtinId="25"/>
-    <cellStyle name="Вывод" xfId="12" builtinId="21"/>
-    <cellStyle name="Гиперссылка" xfId="13" builtinId="8"/>
-    <cellStyle name="40% — Акцент4" xfId="14" builtinId="43"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="15" builtinId="9"/>
-    <cellStyle name="Примечание" xfId="16" builtinId="10"/>
-    <cellStyle name="Предупреждающий текст" xfId="17" builtinId="11"/>
-    <cellStyle name="Заголовок" xfId="18" builtinId="15"/>
-    <cellStyle name="Пояснительный текст" xfId="19" builtinId="53"/>
-    <cellStyle name="Заголовок 1" xfId="20" builtinId="16"/>
-    <cellStyle name="Заголовок 2" xfId="21" builtinId="17"/>
-    <cellStyle name="Заголовок 3" xfId="22" builtinId="18"/>
-    <cellStyle name="Заголовок 4" xfId="23" builtinId="19"/>
-    <cellStyle name="Ввод" xfId="24" builtinId="20"/>
-    <cellStyle name="Проверить ячейку" xfId="25" builtinId="23"/>
-    <cellStyle name="Вычисление" xfId="26" builtinId="22"/>
-    <cellStyle name="Связанная ячейка" xfId="27" builtinId="24"/>
-    <cellStyle name="Плохой" xfId="28" builtinId="27"/>
-    <cellStyle name="Акцент5" xfId="29" builtinId="45"/>
-    <cellStyle name="Нейтральный" xfId="30" builtinId="28"/>
-    <cellStyle name="Акцент1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% — Акцент1" xfId="32" builtinId="30"/>
-    <cellStyle name="40% — Акцент1" xfId="33" builtinId="31"/>
-    <cellStyle name="20% — Акцент5" xfId="34" builtinId="46"/>
-    <cellStyle name="60% — Акцент1" xfId="35" builtinId="32"/>
-    <cellStyle name="Акцент2" xfId="36" builtinId="33"/>
-    <cellStyle name="40% — Акцент2" xfId="37" builtinId="35"/>
-    <cellStyle name="20% — Акцент6" xfId="38" builtinId="50"/>
-    <cellStyle name="60% — Акцент2" xfId="39" builtinId="36"/>
-    <cellStyle name="Акцент3" xfId="40" builtinId="37"/>
-    <cellStyle name="40% — Акцент3" xfId="41" builtinId="39"/>
-    <cellStyle name="60% — Акцент3" xfId="42" builtinId="40"/>
-    <cellStyle name="Акцент4" xfId="43" builtinId="41"/>
-    <cellStyle name="20% — Акцент4" xfId="44" builtinId="42"/>
-    <cellStyle name="60% — Акцент4" xfId="45" builtinId="44"/>
-    <cellStyle name="60% — Акцент5" xfId="46" builtinId="48"/>
-    <cellStyle name="Акцент6" xfId="47" builtinId="49"/>
-    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1448,42 +1454,42 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AJ65"/>
+  <dimension ref="A1:AN65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AB3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AH16" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AK11" sqref="AK11"/>
+      <selection pane="bottomRight" activeCell="AN26" sqref="AN26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="14.775" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="17.2222222222222" customWidth="1"/>
-    <col min="4" max="4" width="8.88888888888889" customWidth="1"/>
-    <col min="5" max="6" width="7.22222222222222" customWidth="1"/>
+    <col min="3" max="3" width="17.225" customWidth="1"/>
+    <col min="4" max="4" width="8.89166666666667" customWidth="1"/>
+    <col min="5" max="6" width="7.225" customWidth="1"/>
     <col min="7" max="7" width="3.66666666666667" customWidth="1"/>
     <col min="8" max="9" width="2.66666666666667" customWidth="1"/>
-    <col min="10" max="10" width="8.88888888888889" customWidth="1"/>
-    <col min="11" max="11" width="10.4444444444444" customWidth="1"/>
-    <col min="12" max="13" width="8.88888888888889" customWidth="1"/>
-    <col min="15" max="15" width="16.2222222222222" customWidth="1"/>
+    <col min="10" max="10" width="8.89166666666667" customWidth="1"/>
+    <col min="11" max="11" width="10.4416666666667" customWidth="1"/>
+    <col min="12" max="13" width="8.89166666666667" customWidth="1"/>
+    <col min="15" max="15" width="16.225" customWidth="1"/>
     <col min="18" max="18" width="2.66666666666667" customWidth="1"/>
     <col min="19" max="21" width="3.66666666666667" customWidth="1"/>
     <col min="23" max="23" width="2.66666666666667" customWidth="1"/>
     <col min="25" max="26" width="2.66666666666667" customWidth="1"/>
-    <col min="27" max="28" width="10.8888888888889"/>
+    <col min="27" max="28" width="10.8916666666667"/>
     <col min="29" max="30" width="6.33333333333333" customWidth="1"/>
     <col min="31" max="31" width="2.66666666666667" customWidth="1"/>
-    <col min="32" max="33" width="10.8888888888889"/>
-    <col min="35" max="35" width="24.4444444444444" customWidth="1"/>
-    <col min="36" max="36" width="10.8888888888889"/>
+    <col min="32" max="33" width="10.8916666666667"/>
+    <col min="35" max="35" width="24.4416666666667" customWidth="1"/>
+    <col min="36" max="36" width="10.8916666666667"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" customHeight="1" spans="1:36">
+    <row r="1" ht="24" customHeight="1" spans="1:38">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1553,13 +1559,19 @@
       <c r="AJ1" s="9">
         <v>44947</v>
       </c>
+      <c r="AK1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" hidden="1" spans="1:14">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3"/>
       <c r="J2">
@@ -1570,15 +1582,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:40">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1612,7 +1624,7 @@
         <v>26</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q3">
         <v>1</v>
@@ -1658,21 +1670,30 @@
         <v>40</v>
       </c>
       <c r="AI3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="AJ3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36">
-      <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1731,21 +1752,33 @@
         <v>6</v>
       </c>
       <c r="AI4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:36">
+      <c r="AK4">
+        <v>2</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
+        <v>1</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1761,7 +1794,7 @@
         <v>23</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P5">
         <v>5</v>
@@ -1810,18 +1843,27 @@
         <v>34</v>
       </c>
       <c r="AI5" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ5">
         <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
+        <v>-1</v>
+      </c>
+      <c r="AN5">
+        <v>6</v>
       </c>
     </row>
     <row r="6" hidden="1" spans="1:21">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6">
@@ -1836,10 +1878,10 @@
     </row>
     <row r="7" hidden="1" spans="1:21">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7">
@@ -1854,10 +1896,10 @@
     </row>
     <row r="8" hidden="1" spans="1:21">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8" s="3"/>
       <c r="S8">
@@ -1869,10 +1911,10 @@
     </row>
     <row r="9" hidden="1" spans="1:21">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9">
@@ -1887,10 +1929,10 @@
     </row>
     <row r="10" hidden="1" spans="1:21">
       <c r="A10" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10">
@@ -1905,13 +1947,13 @@
     </row>
     <row r="11" spans="1:36">
       <c r="A11" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1958,21 +2000,21 @@
         <v>14</v>
       </c>
       <c r="AI11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:40">
       <c r="A12" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2000,7 +2042,7 @@
         <v>25</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q12">
         <v>1</v>
@@ -2031,21 +2073,30 @@
         <v>22</v>
       </c>
       <c r="AI12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ12">
         <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
+        <v>3</v>
+      </c>
+      <c r="AN12">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2095,15 +2146,15 @@
         <v>8</v>
       </c>
       <c r="AI13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" hidden="1" spans="1:21">
       <c r="A14" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C14" s="3"/>
       <c r="S14">
@@ -2113,15 +2164,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35">
+    <row r="15" spans="1:39">
       <c r="A15" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2159,18 +2210,24 @@
         <v>11</v>
       </c>
       <c r="AI15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36">
+        <v>15</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40">
       <c r="A16" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2241,21 +2298,33 @@
         <v>21</v>
       </c>
       <c r="AI16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ16">
         <v>1</v>
+      </c>
+      <c r="AK16">
+        <v>2</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
+        <v>3</v>
+      </c>
+      <c r="AN16">
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2299,18 +2368,18 @@
         <v>12</v>
       </c>
       <c r="AI17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:35">
       <c r="A18" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2360,18 +2429,18 @@
         <v>19</v>
       </c>
       <c r="AI18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2408,22 +2477,22 @@
         <v>27</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH19" s="10">
         <f>SUM(Q19:AG19)+N19</f>
         <v>27</v>
       </c>
       <c r="AI19" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" hidden="1" spans="1:21">
       <c r="A20" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C20" s="3"/>
       <c r="S20">
@@ -2433,15 +2502,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:40">
       <c r="A21" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -2497,21 +2566,33 @@
         <v>25</v>
       </c>
       <c r="AI21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:36">
+      <c r="AK21">
+        <v>2</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40">
       <c r="A22" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2545,7 +2626,7 @@
         <v>31</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -2594,21 +2675,30 @@
         <v>53</v>
       </c>
       <c r="AI22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ22">
+        <v>1</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
+      <c r="AM22">
+        <v>2</v>
+      </c>
+      <c r="AN22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40">
+      <c r="A23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="AJ22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:36">
-      <c r="A23" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2673,21 +2763,30 @@
         <v>19</v>
       </c>
       <c r="AI23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" ht="15.15" spans="1:35">
+      <c r="AL23">
+        <v>1</v>
+      </c>
+      <c r="AM23">
+        <v>-3</v>
+      </c>
+      <c r="AN23">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="24" ht="15" spans="1:35">
       <c r="A24" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2731,18 +2830,18 @@
         <v>2</v>
       </c>
       <c r="AI24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:36">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" ht="15" spans="1:36">
       <c r="A25" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2798,21 +2897,21 @@
         <v>7</v>
       </c>
       <c r="AI25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:40">
       <c r="A26" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -2877,21 +2976,30 @@
         <v>6</v>
       </c>
       <c r="AI26" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ26">
         <v>1</v>
+      </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AM26">
+        <v>-3</v>
+      </c>
+      <c r="AN26">
+        <v>-2</v>
       </c>
     </row>
     <row r="27" spans="1:36">
       <c r="A27" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -2928,7 +3036,7 @@
         <v>1</v>
       </c>
       <c r="AI27" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ27">
         <v>1</v>
@@ -2936,13 +3044,13 @@
     </row>
     <row r="28" spans="1:36">
       <c r="A28" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="X28">
         <v>1</v>
@@ -2967,7 +3075,7 @@
         <v>9</v>
       </c>
       <c r="AI28" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ28">
         <v>1</v>
@@ -2984,387 +3092,387 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" t="s">
         <v>68</v>
-      </c>
-      <c r="C32" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C34" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C39" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C40" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C41" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C42" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C43" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C44" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C45" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C46" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C47" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C48" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C49" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C50" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C51" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C52" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" t="s">
         <v>104</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C53" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C54" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C55" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C56" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C57" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C58" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C59" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C60" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C61" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C62" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C63" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C64" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C65" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/Рабочие материалы/Реальные группы 2022-2023/Новички 2022.xlsx
+++ b/Рабочие материалы/Реальные группы 2022-2023/Новички 2022.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="132">
   <si>
     <t>Фамилия</t>
   </si>
@@ -49,6 +49,9 @@
     <t>28.01.23</t>
   </si>
   <si>
+    <t>Итого</t>
+  </si>
+  <si>
     <t>Абдраманов</t>
   </si>
   <si>
@@ -70,21 +73,24 @@
     <t>Spongia</t>
   </si>
   <si>
+    <t>Cnidaria</t>
+  </si>
+  <si>
     <t>Афиногентов</t>
   </si>
   <si>
     <t>Владимир</t>
   </si>
   <si>
+    <t>Choanoflagellata</t>
+  </si>
+  <si>
     <t>Беляева</t>
   </si>
   <si>
     <t>Олеся</t>
   </si>
   <si>
-    <t>Choanoflagellata</t>
-  </si>
-  <si>
     <t>Божко</t>
   </si>
   <si>
@@ -121,12 +127,18 @@
     <t>Алексей</t>
   </si>
   <si>
+    <t>Amoebozoa</t>
+  </si>
+  <si>
     <t>Мурыгина</t>
   </si>
   <si>
     <t>Арина</t>
   </si>
   <si>
+    <t>Placozoa</t>
+  </si>
+  <si>
     <t>Пленкина</t>
   </si>
   <si>
@@ -184,6 +196,9 @@
     <t>Родион</t>
   </si>
   <si>
+    <t>Plathelminthes</t>
+  </si>
+  <si>
     <t>Константинов</t>
   </si>
   <si>
@@ -205,7 +220,7 @@
     <t>Елизавета</t>
   </si>
   <si>
-    <t>Путчик</t>
+    <t>Пучик</t>
   </si>
   <si>
     <t>Даша</t>
@@ -457,11 +472,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="dd,mm,yyyy"/>
-    <numFmt numFmtId="177" formatCode="dd,mmm"/>
-    <numFmt numFmtId="178" formatCode="_-* #\,##0.00_-;\-* #\,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\,##0.00_-;\-* #\,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\,##0_-;\-* #\,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\,##0\ &quot;₽&quot;_-;\-* #\,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="_-* #\,##0.00\ &quot;₽&quot;_-;\-* #\,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="_-* #\,##0_-;\-* #\,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="181" formatCode="dd,mmm"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -484,13 +499,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -499,63 +507,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -570,14 +523,13 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -585,25 +537,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -622,9 +568,78 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -661,7 +676,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,91 +826,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,67 +844,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,30 +879,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -903,27 +894,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -946,6 +920,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -961,161 +946,191 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1133,6 +1148,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1454,14 +1472,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AN65"/>
+  <dimension ref="A1:AU65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AH16" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="AP3" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AN26" sqref="AN26"/>
+      <selection pane="bottomRight" activeCell="AV1" sqref="AV1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14.25"/>
@@ -1487,9 +1505,13 @@
     <col min="32" max="33" width="10.8916666666667"/>
     <col min="35" max="35" width="24.4416666666667" customWidth="1"/>
     <col min="36" max="36" width="10.8916666666667"/>
+    <col min="41" max="41" width="10.375"/>
+    <col min="44" max="44" width="15.375" customWidth="1"/>
+    <col min="45" max="45" width="10.375"/>
+    <col min="47" max="47" width="10.375"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" customHeight="1" spans="1:38">
+    <row r="1" ht="24" customHeight="1" spans="1:47">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1565,13 +1587,28 @@
       <c r="AL1" t="s">
         <v>9</v>
       </c>
+      <c r="AO1" s="11">
+        <v>44961</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS1" s="11">
+        <v>44968</v>
+      </c>
+      <c r="AU1" s="11">
+        <v>44975</v>
+      </c>
     </row>
     <row r="2" hidden="1" spans="1:14">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3"/>
       <c r="J2">
@@ -1582,15 +1619,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:47">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1624,7 +1661,7 @@
         <v>26</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q3">
         <v>1</v>
@@ -1670,7 +1707,7 @@
         <v>40</v>
       </c>
       <c r="AI3" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ3">
         <v>1</v>
@@ -1684,16 +1721,38 @@
       <c r="AN3">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:40">
+      <c r="AO3">
+        <v>1</v>
+      </c>
+      <c r="AP3">
+        <v>13</v>
+      </c>
+      <c r="AQ3">
+        <f>SUM(AJ3:AP3)+AH3</f>
+        <v>63</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS3">
+        <v>1</v>
+      </c>
+      <c r="AT3">
+        <v>10</v>
+      </c>
+      <c r="AU3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1752,7 +1811,7 @@
         <v>6</v>
       </c>
       <c r="AI4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ4">
         <v>1</v>
@@ -1769,16 +1828,38 @@
       <c r="AN4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:40">
+      <c r="AO4">
+        <v>1</v>
+      </c>
+      <c r="AP4">
+        <v>8</v>
+      </c>
+      <c r="AQ4">
+        <f>SUM(AJ4:AP4)+AH4</f>
+        <v>21</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS4">
+        <v>1</v>
+      </c>
+      <c r="AT4">
+        <v>10</v>
+      </c>
+      <c r="AU4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1794,7 +1875,7 @@
         <v>23</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P5">
         <v>5</v>
@@ -1857,13 +1938,35 @@
       <c r="AN5">
         <v>6</v>
       </c>
+      <c r="AO5">
+        <v>1</v>
+      </c>
+      <c r="AP5">
+        <v>22</v>
+      </c>
+      <c r="AQ5">
+        <f>SUM(AJ5:AP5)+AH5</f>
+        <v>64</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS5">
+        <v>1</v>
+      </c>
+      <c r="AT5">
+        <v>10</v>
+      </c>
+      <c r="AU5">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" hidden="1" spans="1:21">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6">
@@ -1878,10 +1981,10 @@
     </row>
     <row r="7" hidden="1" spans="1:21">
       <c r="A7" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7">
@@ -1896,10 +1999,10 @@
     </row>
     <row r="8" hidden="1" spans="1:21">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8" s="3"/>
       <c r="S8">
@@ -1911,10 +2014,10 @@
     </row>
     <row r="9" hidden="1" spans="1:21">
       <c r="A9" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9">
@@ -1929,10 +2032,10 @@
     </row>
     <row r="10" hidden="1" spans="1:21">
       <c r="A10" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10">
@@ -1945,15 +2048,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:44">
       <c r="A11" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2000,21 +2103,28 @@
         <v>14</v>
       </c>
       <c r="AI11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ11">
+        <v>1</v>
+      </c>
+      <c r="AQ11">
+        <f>SUM(AJ11:AP11)+AH11</f>
         <v>15</v>
       </c>
-      <c r="AJ11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40">
+      <c r="AR11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46">
       <c r="A12" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2042,7 +2152,7 @@
         <v>25</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q12">
         <v>1</v>
@@ -2073,7 +2183,7 @@
         <v>22</v>
       </c>
       <c r="AI12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ12">
         <v>1</v>
@@ -2087,16 +2197,35 @@
       <c r="AN12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:35">
+      <c r="AO12">
+        <v>1</v>
+      </c>
+      <c r="AP12">
+        <v>14</v>
+      </c>
+      <c r="AQ12">
+        <f>SUM(AJ12:AP12)+AH12</f>
+        <v>44</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS12">
+        <v>1</v>
+      </c>
+      <c r="AT12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2146,15 +2275,28 @@
         <v>8</v>
       </c>
       <c r="AI13" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="AO13">
+        <v>1</v>
+      </c>
+      <c r="AP13">
+        <v>1</v>
+      </c>
+      <c r="AQ13">
+        <f>SUM(AJ13:AP13)+AH13</f>
+        <v>10</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14" hidden="1" spans="1:21">
       <c r="A14" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C14" s="3"/>
       <c r="S14">
@@ -2164,15 +2306,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:47">
       <c r="A15" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2210,7 +2352,7 @@
         <v>11</v>
       </c>
       <c r="AI15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL15">
         <v>1</v>
@@ -2218,16 +2360,32 @@
       <c r="AM15">
         <v>-7</v>
       </c>
-    </row>
-    <row r="16" spans="1:40">
+      <c r="AO15">
+        <v>1</v>
+      </c>
+      <c r="AP15">
+        <v>-7</v>
+      </c>
+      <c r="AQ15">
+        <f>SUM(AJ15:AP15)+AH15</f>
+        <v>-1</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:47">
       <c r="A16" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2298,7 +2456,7 @@
         <v>21</v>
       </c>
       <c r="AI16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ16">
         <v>1</v>
@@ -2313,18 +2471,40 @@
         <v>3</v>
       </c>
       <c r="AN16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:35">
+        <v>6</v>
+      </c>
+      <c r="AO16">
+        <v>1</v>
+      </c>
+      <c r="AP16">
+        <v>21</v>
+      </c>
+      <c r="AQ16">
+        <f>SUM(AJ16:AP16)+AH16</f>
+        <v>56</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS16">
+        <v>1</v>
+      </c>
+      <c r="AT16">
+        <v>10</v>
+      </c>
+      <c r="AU16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:44">
       <c r="A17" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2368,18 +2548,25 @@
         <v>12</v>
       </c>
       <c r="AI17" t="s">
+        <v>16</v>
+      </c>
+      <c r="AQ17">
+        <f>SUM(AJ17:AP17)+AH17</f>
+        <v>12</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:44">
+      <c r="A18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:35">
-      <c r="A18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2429,18 +2616,25 @@
         <v>19</v>
       </c>
       <c r="AI18" t="s">
+        <v>16</v>
+      </c>
+      <c r="AQ18">
+        <f>SUM(AJ18:AP18)+AH18</f>
+        <v>19</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:44">
+      <c r="A19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:35">
-      <c r="A19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2477,22 +2671,29 @@
         <v>27</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH19" s="10">
         <f>SUM(Q19:AG19)+N19</f>
         <v>27</v>
       </c>
       <c r="AI19" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="AQ19">
+        <f>SUM(AJ19:AP19)+AH19</f>
+        <v>27</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="20" hidden="1" spans="1:21">
       <c r="A20" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C20" s="3"/>
       <c r="S20">
@@ -2502,15 +2703,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
+    <row r="21" spans="1:46">
       <c r="A21" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -2566,7 +2767,7 @@
         <v>25</v>
       </c>
       <c r="AI21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ21">
         <v>1</v>
@@ -2581,18 +2782,37 @@
         <v>0</v>
       </c>
       <c r="AN21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:40">
+        <v>2</v>
+      </c>
+      <c r="AO21">
+        <v>1</v>
+      </c>
+      <c r="AP21">
+        <v>7</v>
+      </c>
+      <c r="AQ21">
+        <f t="shared" ref="AQ21:AQ28" si="2">SUM(AJ21:AP21)+AH21</f>
+        <v>39</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>17</v>
+      </c>
+      <c r="AS21">
+        <v>1</v>
+      </c>
+      <c r="AT21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:47">
       <c r="A22" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2675,7 +2895,7 @@
         <v>53</v>
       </c>
       <c r="AI22" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ22">
         <v>1</v>
@@ -2689,16 +2909,38 @@
       <c r="AN22">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:40">
+      <c r="AO22">
+        <v>1</v>
+      </c>
+      <c r="AP22">
+        <v>15</v>
+      </c>
+      <c r="AQ22">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS22">
+        <v>1</v>
+      </c>
+      <c r="AT22">
+        <v>10</v>
+      </c>
+      <c r="AU22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:47">
       <c r="A23" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2763,7 +3005,7 @@
         <v>19</v>
       </c>
       <c r="AI23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ23">
         <v>1</v>
@@ -2777,16 +3019,38 @@
       <c r="AN23">
         <v>-3</v>
       </c>
-    </row>
-    <row r="24" ht="15" spans="1:35">
+      <c r="AO23">
+        <v>1</v>
+      </c>
+      <c r="AP23">
+        <v>2</v>
+      </c>
+      <c r="AQ23">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS23">
+        <v>1</v>
+      </c>
+      <c r="AT23">
+        <v>10</v>
+      </c>
+      <c r="AU23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" ht="15" spans="1:44">
       <c r="A24" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2830,18 +3094,28 @@
         <v>2</v>
       </c>
       <c r="AI24" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO24">
+        <v>1</v>
+      </c>
+      <c r="AQ24">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:47">
+      <c r="A25" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="25" ht="15" spans="1:36">
-      <c r="A25" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2897,21 +3171,37 @@
         <v>7</v>
       </c>
       <c r="AI25" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
+        <v>1</v>
+      </c>
+      <c r="AP25">
+        <v>21</v>
+      </c>
+      <c r="AQ25">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>17</v>
+      </c>
+      <c r="AU25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:47">
+      <c r="A26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="AJ25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:40">
-      <c r="A26" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -2976,7 +3266,7 @@
         <v>6</v>
       </c>
       <c r="AI26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ26">
         <v>1</v>
@@ -2988,18 +3278,40 @@
         <v>-3</v>
       </c>
       <c r="AN26">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:36">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>1</v>
+      </c>
+      <c r="AP26">
+        <v>-1</v>
+      </c>
+      <c r="AQ26">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS26">
+        <v>1</v>
+      </c>
+      <c r="AT26">
+        <v>10</v>
+      </c>
+      <c r="AU26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:47">
       <c r="A27" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -3036,21 +3348,43 @@
         <v>1</v>
       </c>
       <c r="AI27" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ27">
+        <v>1</v>
+      </c>
+      <c r="AO27">
+        <v>1</v>
+      </c>
+      <c r="AP27">
+        <v>13</v>
+      </c>
+      <c r="AQ27">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS27">
+        <v>1</v>
+      </c>
+      <c r="AT27">
+        <v>10</v>
+      </c>
+      <c r="AU27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:47">
+      <c r="A28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="AJ27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:36">
-      <c r="A28" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="X28">
         <v>1</v>
@@ -3075,9 +3409,31 @@
         <v>9</v>
       </c>
       <c r="AI28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
+        <v>1</v>
+      </c>
+      <c r="AP28">
+        <v>16</v>
+      </c>
+      <c r="AQ28">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS28">
+        <v>1</v>
+      </c>
+      <c r="AT28">
+        <v>10</v>
+      </c>
+      <c r="AU28">
         <v>1</v>
       </c>
     </row>
@@ -3092,387 +3448,387 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" t="s">
         <v>73</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C36" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C37" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C38" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C40" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C41" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C42" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C43" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C44" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C45" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C46" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C47" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C48" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C49" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="6" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C50" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C52" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C53" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C54" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" t="s">
         <v>109</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C55" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C56" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C57" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C58" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C59" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C60" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C61" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C62" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C63" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C64" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C65" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/Рабочие материалы/Реальные группы 2022-2023/Новички 2022.xlsx
+++ b/Рабочие материалы/Реальные группы 2022-2023/Новички 2022.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="7230"/>
+    <workbookView windowWidth="14535" windowHeight="7200"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$L$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$L$26</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="137">
   <si>
     <t>Фамилия</t>
   </si>
@@ -52,12 +52,18 @@
     <t>Итого</t>
   </si>
   <si>
+    <t>Финал!</t>
+  </si>
+  <si>
     <t>Абдраманов</t>
   </si>
   <si>
     <t>Артём</t>
   </si>
   <si>
+    <t>Cnidaria</t>
+  </si>
+  <si>
     <t>Аудах</t>
   </si>
   <si>
@@ -73,7 +79,7 @@
     <t>Spongia</t>
   </si>
   <si>
-    <t>Cnidaria</t>
+    <t>Plathelmintes</t>
   </si>
   <si>
     <t>Афиногентов</t>
@@ -97,12 +103,18 @@
     <t>Маргарита</t>
   </si>
   <si>
+    <t>Placozoa</t>
+  </si>
+  <si>
     <t>Григорьев</t>
   </si>
   <si>
     <t>Олег</t>
   </si>
   <si>
+    <t>Amoebozoa</t>
+  </si>
+  <si>
     <t>Гутова</t>
   </si>
   <si>
@@ -127,7 +139,7 @@
     <t>Алексей</t>
   </si>
   <si>
-    <t>Amoebozoa</t>
+    <t>Protista</t>
   </si>
   <si>
     <t>Мурыгина</t>
@@ -136,7 +148,7 @@
     <t>Арина</t>
   </si>
   <si>
-    <t>Placozoa</t>
+    <t>Proterospongia</t>
   </si>
   <si>
     <t>Пленкина</t>
@@ -163,73 +175,76 @@
     <t>Тимур</t>
   </si>
   <si>
+    <t>Шаршов</t>
+  </si>
+  <si>
+    <t>Леонид</t>
+  </si>
+  <si>
+    <t>Тихонов</t>
+  </si>
+  <si>
+    <t>Свитков</t>
+  </si>
+  <si>
+    <t>Родион</t>
+  </si>
+  <si>
+    <t>Plathelminthes</t>
+  </si>
+  <si>
+    <t>Trochozoa</t>
+  </si>
+  <si>
+    <t>Константинов</t>
+  </si>
+  <si>
+    <t>Евгений</t>
+  </si>
+  <si>
+    <t>Соня</t>
+  </si>
+  <si>
+    <t>Мелия</t>
+  </si>
+  <si>
+    <t>Виктория</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Журавская </t>
+  </si>
+  <si>
+    <t>Елизавета</t>
+  </si>
+  <si>
+    <t>Пучик</t>
+  </si>
+  <si>
+    <t>Даша</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Власова </t>
+  </si>
+  <si>
+    <t>Валя</t>
+  </si>
+  <si>
+    <t>Чернобаева</t>
+  </si>
+  <si>
+    <t>Екатерина</t>
+  </si>
+  <si>
+    <t>Серова</t>
+  </si>
+  <si>
+    <t>Полина</t>
+  </si>
+  <si>
     <t>Селиванов</t>
   </si>
   <si>
     <t>Александр</t>
-  </si>
-  <si>
-    <t>Серова</t>
-  </si>
-  <si>
-    <t>Полина</t>
-  </si>
-  <si>
-    <t>Чернобаева</t>
-  </si>
-  <si>
-    <t>Екатерина</t>
-  </si>
-  <si>
-    <t>Шаршов</t>
-  </si>
-  <si>
-    <t>Леонид</t>
-  </si>
-  <si>
-    <t>Тихонов</t>
-  </si>
-  <si>
-    <t>Свитков</t>
-  </si>
-  <si>
-    <t>Родион</t>
-  </si>
-  <si>
-    <t>Plathelminthes</t>
-  </si>
-  <si>
-    <t>Константинов</t>
-  </si>
-  <si>
-    <t>Евгений</t>
-  </si>
-  <si>
-    <t>Соня</t>
-  </si>
-  <si>
-    <t>Мелия</t>
-  </si>
-  <si>
-    <t>Виктория</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Журавская </t>
-  </si>
-  <si>
-    <t>Елизавета</t>
-  </si>
-  <si>
-    <t>Пучик</t>
-  </si>
-  <si>
-    <t>Даша</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Власова </t>
-  </si>
-  <si>
-    <t>Валя</t>
   </si>
   <si>
     <t>Дружинин</t>
@@ -471,12 +486,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="dd,mm,yyyy"/>
-    <numFmt numFmtId="177" formatCode="_-* #\,##0.00_-;\-* #\,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\,##0_-;\-* #\,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\,##0\ &quot;₽&quot;_-;\-* #\,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_-* #\,##0.00\ &quot;₽&quot;_-;\-* #\,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="dd,mmm"/>
+    <numFmt numFmtId="176" formatCode="dd,mmm"/>
+    <numFmt numFmtId="177" formatCode="_-* #\,##0\ &quot;₽&quot;_-;\-* #\,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\,##0.00\ &quot;₽&quot;_-;\-* #\,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\,##0_-;\-* #\,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="dd,mm,yyyy"/>
+    <numFmt numFmtId="181" formatCode="_-* #\,##0.00_-;\-* #\,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -515,33 +530,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -554,21 +546,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -576,7 +561,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -591,21 +576,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -613,17 +584,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -640,6 +610,51 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -676,7 +691,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,121 +733,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -820,13 +769,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -838,13 +817,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,6 +894,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -890,15 +914,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -929,11 +944,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -943,6 +964,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -961,159 +991,144 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1130,7 +1145,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1144,7 +1159,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1472,14 +1487,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AU65"/>
+  <dimension ref="A1:BF66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AP3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="BA3" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AV1" sqref="AV1"/>
+      <selection pane="bottomRight" activeCell="BF3" sqref="BF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14.25"/>
@@ -1508,10 +1523,16 @@
     <col min="41" max="41" width="10.375"/>
     <col min="44" max="44" width="15.375" customWidth="1"/>
     <col min="45" max="45" width="10.375"/>
-    <col min="47" max="47" width="10.375"/>
+    <col min="47" max="49" width="10.375"/>
+    <col min="50" max="50" width="10.375" customWidth="1"/>
+    <col min="51" max="51" width="4.375" customWidth="1"/>
+    <col min="52" max="52" width="10.375"/>
+    <col min="53" max="53" width="2.625" customWidth="1"/>
+    <col min="54" max="56" width="10.375"/>
+    <col min="57" max="57" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" customHeight="1" spans="1:47">
+    <row r="1" ht="24" customHeight="1" spans="1:58">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1602,13 +1623,37 @@
       <c r="AU1" s="11">
         <v>44975</v>
       </c>
-    </row>
-    <row r="2" hidden="1" spans="1:14">
+      <c r="AV1" s="11">
+        <v>44982</v>
+      </c>
+      <c r="AW1" s="11">
+        <v>44989</v>
+      </c>
+      <c r="AX1" s="11">
+        <v>44996</v>
+      </c>
+      <c r="AZ1" s="11">
+        <v>44638</v>
+      </c>
+      <c r="BB1" s="11">
+        <v>44659</v>
+      </c>
+      <c r="BC1" s="11">
+        <v>45031</v>
+      </c>
+      <c r="BD1" s="11">
+        <v>45059</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" hidden="1" spans="1:58">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="3"/>
       <c r="J2">
@@ -1618,16 +1663,19 @@
         <f>SUBTOTAL(9,D2:M2)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:47">
+      <c r="BF2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:58">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1661,7 +1709,7 @@
         <v>26</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Q3">
         <v>1</v>
@@ -1707,7 +1755,7 @@
         <v>40</v>
       </c>
       <c r="AI3" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ3">
         <v>1</v>
@@ -1732,7 +1780,7 @@
         <v>63</v>
       </c>
       <c r="AR3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AS3">
         <v>1</v>
@@ -1743,16 +1791,47 @@
       <c r="AU3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:47">
+      <c r="AV3">
+        <v>3</v>
+      </c>
+      <c r="AW3">
+        <v>1</v>
+      </c>
+      <c r="AX3">
+        <v>1</v>
+      </c>
+      <c r="AY3">
+        <v>-10</v>
+      </c>
+      <c r="AZ3">
+        <v>1</v>
+      </c>
+      <c r="BB3">
+        <v>1</v>
+      </c>
+      <c r="BC3">
+        <v>1</v>
+      </c>
+      <c r="BD3">
+        <v>1</v>
+      </c>
+      <c r="BE3">
+        <f>SUM(AS3:BD3)+AQ3</f>
+        <v>74</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:58">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1811,7 +1890,7 @@
         <v>6</v>
       </c>
       <c r="AI4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AJ4">
         <v>1</v>
@@ -1839,7 +1918,7 @@
         <v>21</v>
       </c>
       <c r="AR4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AS4">
         <v>1</v>
@@ -1850,16 +1929,44 @@
       <c r="AU4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:47">
+      <c r="AV4">
+        <v>1</v>
+      </c>
+      <c r="AW4">
+        <v>1</v>
+      </c>
+      <c r="AX4">
+        <v>1</v>
+      </c>
+      <c r="AY4">
+        <v>-10</v>
+      </c>
+      <c r="BB4">
+        <v>1</v>
+      </c>
+      <c r="BC4">
+        <v>1</v>
+      </c>
+      <c r="BD4">
+        <v>1</v>
+      </c>
+      <c r="BE4">
+        <f>SUM(AS4:BD4)+AQ4</f>
+        <v>29</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:58">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1875,7 +1982,7 @@
         <v>23</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P5">
         <v>5</v>
@@ -1924,7 +2031,7 @@
         <v>34</v>
       </c>
       <c r="AI5" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ5">
         <v>1</v>
@@ -1949,7 +2056,7 @@
         <v>64</v>
       </c>
       <c r="AR5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AS5">
         <v>1</v>
@@ -1960,13 +2067,35 @@
       <c r="AU5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" hidden="1" spans="1:21">
+      <c r="AW5">
+        <v>1</v>
+      </c>
+      <c r="AX5">
+        <v>1</v>
+      </c>
+      <c r="AY5">
+        <v>-10</v>
+      </c>
+      <c r="BB5">
+        <v>1</v>
+      </c>
+      <c r="BD5">
+        <v>1</v>
+      </c>
+      <c r="BE5">
+        <f>SUM(AS5:BD5)+AQ5</f>
+        <v>72</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" hidden="1" spans="1:58">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6">
@@ -1978,13 +2107,16 @@
       <c r="U6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" hidden="1" spans="1:21">
+      <c r="BF6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" hidden="1" spans="1:58">
       <c r="A7" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7">
@@ -1996,13 +2128,16 @@
       <c r="U7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" hidden="1" spans="1:21">
+      <c r="BF7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" hidden="1" spans="1:58">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C8" s="3"/>
       <c r="S8">
@@ -2011,13 +2146,16 @@
       <c r="U8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" hidden="1" spans="1:21">
+      <c r="BF8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" hidden="1" spans="1:58">
       <c r="A9" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9">
@@ -2029,13 +2167,16 @@
       <c r="U9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" hidden="1" spans="1:21">
+      <c r="BF9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" hidden="1" spans="1:58">
       <c r="A10" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10">
@@ -2047,16 +2188,19 @@
       <c r="U10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:44">
+      <c r="BF10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:58">
       <c r="A11" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2103,7 +2247,7 @@
         <v>14</v>
       </c>
       <c r="AI11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AJ11">
         <v>1</v>
@@ -2113,18 +2257,37 @@
         <v>15</v>
       </c>
       <c r="AR11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:46">
+        <v>31</v>
+      </c>
+      <c r="AW11">
+        <v>1</v>
+      </c>
+      <c r="BB11">
+        <v>1</v>
+      </c>
+      <c r="BC11">
+        <v>1</v>
+      </c>
+      <c r="BD11">
+        <v>1</v>
+      </c>
+      <c r="BE11">
+        <f>SUM(AS11:BD11)+AQ11</f>
+        <v>19</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:58">
       <c r="A12" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2152,7 +2315,7 @@
         <v>25</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Q12">
         <v>1</v>
@@ -2183,7 +2346,7 @@
         <v>22</v>
       </c>
       <c r="AI12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AJ12">
         <v>1</v>
@@ -2208,7 +2371,7 @@
         <v>44</v>
       </c>
       <c r="AR12" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="AS12">
         <v>1</v>
@@ -2216,16 +2379,35 @@
       <c r="AT12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:44">
+      <c r="AW12">
+        <v>1</v>
+      </c>
+      <c r="AZ12">
+        <v>1</v>
+      </c>
+      <c r="BB12">
+        <v>1</v>
+      </c>
+      <c r="BD12">
+        <v>1</v>
+      </c>
+      <c r="BE12">
+        <f>SUM(AS12:BD12)+AQ12</f>
+        <v>59</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:58">
       <c r="A13" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2275,7 +2457,7 @@
         <v>8</v>
       </c>
       <c r="AI13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO13">
         <v>1</v>
@@ -2288,15 +2470,37 @@
         <v>10</v>
       </c>
       <c r="AR13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" hidden="1" spans="1:21">
+        <v>31</v>
+      </c>
+      <c r="AV13">
+        <v>1</v>
+      </c>
+      <c r="AW13">
+        <v>1</v>
+      </c>
+      <c r="AX13">
+        <v>1</v>
+      </c>
+      <c r="AY13">
+        <v>-10</v>
+      </c>
+      <c r="BD13">
+        <v>1</v>
+      </c>
+      <c r="BE13">
+        <f>SUM(AS13:BD13)+AQ13</f>
+        <v>4</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" hidden="1" spans="1:58">
       <c r="A14" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C14" s="3"/>
       <c r="S14">
@@ -2305,16 +2509,19 @@
       <c r="U14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:47">
+      <c r="BF14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:57">
       <c r="A15" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2352,7 +2559,7 @@
         <v>11</v>
       </c>
       <c r="AI15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AL15">
         <v>1</v>
@@ -2371,21 +2578,37 @@
         <v>-1</v>
       </c>
       <c r="AR15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AU15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:47">
+      <c r="AX15">
+        <v>1</v>
+      </c>
+      <c r="AY15">
+        <v>-10</v>
+      </c>
+      <c r="AZ15">
+        <v>1</v>
+      </c>
+      <c r="BA15">
+        <v>2</v>
+      </c>
+      <c r="BE15">
+        <f>SUM(AS15:BD15)+AQ15</f>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:58">
       <c r="A16" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2456,7 +2679,7 @@
         <v>21</v>
       </c>
       <c r="AI16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AJ16">
         <v>1</v>
@@ -2484,7 +2707,7 @@
         <v>56</v>
       </c>
       <c r="AR16" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="AS16">
         <v>1</v>
@@ -2495,81 +2718,77 @@
       <c r="AU16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:44">
+      <c r="AW16">
+        <v>3</v>
+      </c>
+      <c r="AX16">
+        <v>1</v>
+      </c>
+      <c r="AY16">
+        <v>-10</v>
+      </c>
+      <c r="BA16">
+        <v>2</v>
+      </c>
+      <c r="BB16">
+        <v>1</v>
+      </c>
+      <c r="BC16">
+        <v>1</v>
+      </c>
+      <c r="BD16">
+        <v>1</v>
+      </c>
+      <c r="BE16">
+        <f>SUM(AS16:BD16)+AQ16</f>
+        <v>69</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" hidden="1" spans="1:58">
       <c r="A17" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="N17">
-        <f>SUBTOTAL(9,D17:M17)</f>
-        <v>2</v>
-      </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C17" s="3"/>
       <c r="S17">
         <v>0</v>
       </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
       <c r="U17">
         <v>0</v>
       </c>
-      <c r="V17">
-        <v>1</v>
-      </c>
-      <c r="X17">
-        <v>1</v>
-      </c>
-      <c r="Y17">
-        <v>5</v>
-      </c>
-      <c r="AF17">
-        <v>1</v>
-      </c>
-      <c r="AG17">
-        <v>1</v>
-      </c>
-      <c r="AH17" s="10">
-        <f>SUM(Q17:AG17)+N17</f>
-        <v>12</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>16</v>
-      </c>
-      <c r="AQ17">
-        <f>SUM(AJ17:AP17)+AH17</f>
-        <v>12</v>
-      </c>
-      <c r="AR17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:44">
+      <c r="BF17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:58">
       <c r="A18" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D18">
         <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -2577,82 +2796,128 @@
       <c r="K18">
         <v>5</v>
       </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>9</v>
-      </c>
       <c r="N18">
-        <f>SUBTOTAL(9,D18:M18)</f>
+        <f t="shared" ref="N18:N23" si="0">SUBTOTAL(9,D18:M18)</f>
+        <v>8</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="AA18">
+        <v>1</v>
+      </c>
+      <c r="AB18">
+        <v>1</v>
+      </c>
+      <c r="AC18">
+        <v>3</v>
+      </c>
+      <c r="AD18">
+        <v>4</v>
+      </c>
+      <c r="AE18">
+        <v>5</v>
+      </c>
+      <c r="AG18">
+        <v>1</v>
+      </c>
+      <c r="AH18" s="10">
+        <f t="shared" ref="AH18:AH25" si="1">SUM(Q18:AG18)+N18</f>
+        <v>25</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ18">
+        <v>1</v>
+      </c>
+      <c r="AK18">
+        <v>2</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>2</v>
+      </c>
+      <c r="AO18">
+        <v>1</v>
+      </c>
+      <c r="AP18">
+        <v>7</v>
+      </c>
+      <c r="AQ18">
+        <f t="shared" ref="AQ18:AQ25" si="2">SUM(AJ18:AP18)+AH18</f>
+        <v>39</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS18">
+        <v>1</v>
+      </c>
+      <c r="AT18">
+        <v>10</v>
+      </c>
+      <c r="AV18">
+        <v>1</v>
+      </c>
+      <c r="AW18">
+        <v>3</v>
+      </c>
+      <c r="AX18">
+        <v>1</v>
+      </c>
+      <c r="AY18">
+        <v>-10</v>
+      </c>
+      <c r="BB18">
+        <v>1</v>
+      </c>
+      <c r="BC18">
+        <v>1</v>
+      </c>
+      <c r="BD18">
+        <v>1</v>
+      </c>
+      <c r="BE18">
+        <f t="shared" ref="BE18:BE25" si="3">SUM(AS18:BD18)+AQ18</f>
+        <v>48</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:58">
+      <c r="A19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P18">
-        <v>1</v>
-      </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-      <c r="S18">
-        <v>-2</v>
-      </c>
-      <c r="T18">
-        <v>-1</v>
-      </c>
-      <c r="U18">
-        <v>-3</v>
-      </c>
-      <c r="V18">
-        <v>1</v>
-      </c>
-      <c r="X18">
-        <v>1</v>
-      </c>
-      <c r="Y18">
-        <v>5</v>
-      </c>
-      <c r="AH18" s="10">
-        <f>SUM(Q18:AG18)+N18</f>
-        <v>19</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>16</v>
-      </c>
-      <c r="AQ18">
-        <f>SUM(AJ18:AP18)+AH18</f>
-        <v>19</v>
-      </c>
-      <c r="AR18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:44">
-      <c r="A19" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
       <c r="G19">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -2664,225 +2929,395 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>17</v>
-      </c>
-      <c r="N19" s="7">
-        <f>SUBTOTAL(9,D19:M19)</f>
-        <v>27</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="AH19" s="10">
-        <f>SUM(Q19:AG19)+N19</f>
-        <v>27</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>16</v>
-      </c>
-      <c r="AQ19">
-        <f>SUM(AJ19:AP19)+AH19</f>
-        <v>27</v>
-      </c>
-      <c r="AR19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" hidden="1" spans="1:21">
-      <c r="A20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:46">
-      <c r="A21" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>5</v>
-      </c>
-      <c r="N21">
-        <f t="shared" ref="N21:N26" si="0">SUBTOTAL(9,D21:M21)</f>
-        <v>8</v>
-      </c>
-      <c r="V21">
-        <v>1</v>
-      </c>
-      <c r="X21">
-        <v>1</v>
-      </c>
-      <c r="AA21">
-        <v>1</v>
-      </c>
-      <c r="AB21">
-        <v>1</v>
-      </c>
-      <c r="AC21">
-        <v>3</v>
-      </c>
-      <c r="AD21">
-        <v>4</v>
-      </c>
-      <c r="AE21">
-        <v>5</v>
-      </c>
-      <c r="AG21">
-        <v>1</v>
-      </c>
-      <c r="AH21" s="10">
-        <f t="shared" ref="AH21:AH28" si="1">SUM(Q21:AG21)+N21</f>
-        <v>25</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ21">
-        <v>1</v>
-      </c>
-      <c r="AK21">
-        <v>2</v>
-      </c>
-      <c r="AL21">
-        <v>1</v>
-      </c>
-      <c r="AM21">
-        <v>0</v>
-      </c>
-      <c r="AN21">
-        <v>2</v>
-      </c>
-      <c r="AO21">
-        <v>1</v>
-      </c>
-      <c r="AP21">
-        <v>7</v>
-      </c>
-      <c r="AQ21">
-        <f t="shared" ref="AQ21:AQ28" si="2">SUM(AJ21:AP21)+AH21</f>
-        <v>39</v>
-      </c>
-      <c r="AR21" t="s">
-        <v>17</v>
-      </c>
-      <c r="AS21">
-        <v>1</v>
-      </c>
-      <c r="AT21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:47">
-      <c r="A22" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>5</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
         <v>22</v>
       </c>
-      <c r="N22" s="8">
+      <c r="N19" s="8">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="O22" s="8" t="s">
-        <v>21</v>
+      <c r="O19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>-1</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>-4</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>5</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <v>5</v>
+      </c>
+      <c r="AB19">
+        <v>1</v>
+      </c>
+      <c r="AC19">
+        <v>5</v>
+      </c>
+      <c r="AD19">
+        <v>5</v>
+      </c>
+      <c r="AF19">
+        <v>1</v>
+      </c>
+      <c r="AG19">
+        <v>1</v>
+      </c>
+      <c r="AH19" s="10">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="AI19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ19">
+        <v>1</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
+        <v>2</v>
+      </c>
+      <c r="AN19">
+        <v>4</v>
+      </c>
+      <c r="AO19">
+        <v>1</v>
+      </c>
+      <c r="AP19">
+        <v>15</v>
+      </c>
+      <c r="AQ19">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS19">
+        <v>1</v>
+      </c>
+      <c r="AT19">
+        <v>10</v>
+      </c>
+      <c r="AU19">
+        <v>1</v>
+      </c>
+      <c r="AV19">
+        <v>1</v>
+      </c>
+      <c r="AW19">
+        <v>1</v>
+      </c>
+      <c r="AX19">
+        <v>1</v>
+      </c>
+      <c r="AY19">
+        <v>-10</v>
+      </c>
+      <c r="BB19">
+        <v>1</v>
+      </c>
+      <c r="BC19">
+        <v>1</v>
+      </c>
+      <c r="BE19">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:58">
+      <c r="A20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>-1</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>-2</v>
+      </c>
+      <c r="U20">
+        <v>-3</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>5</v>
+      </c>
+      <c r="Z20">
+        <v>5</v>
+      </c>
+      <c r="AA20">
+        <v>1</v>
+      </c>
+      <c r="AB20">
+        <v>1</v>
+      </c>
+      <c r="AC20">
+        <v>-3</v>
+      </c>
+      <c r="AD20">
+        <v>5</v>
+      </c>
+      <c r="AF20">
+        <v>1</v>
+      </c>
+      <c r="AG20">
+        <v>1</v>
+      </c>
+      <c r="AH20" s="10">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ20">
+        <v>1</v>
+      </c>
+      <c r="AL20">
+        <v>1</v>
+      </c>
+      <c r="AM20">
+        <v>-3</v>
+      </c>
+      <c r="AN20">
+        <v>-3</v>
+      </c>
+      <c r="AO20">
+        <v>1</v>
+      </c>
+      <c r="AP20">
+        <v>2</v>
+      </c>
+      <c r="AQ20">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AS20">
+        <v>1</v>
+      </c>
+      <c r="AT20">
+        <v>10</v>
+      </c>
+      <c r="AU20">
+        <v>1</v>
+      </c>
+      <c r="AW20">
+        <v>1</v>
+      </c>
+      <c r="AX20">
+        <v>1</v>
+      </c>
+      <c r="AY20">
+        <v>-10</v>
+      </c>
+      <c r="AZ20">
+        <v>1</v>
+      </c>
+      <c r="BB20">
+        <v>1</v>
+      </c>
+      <c r="BC20">
+        <v>1</v>
+      </c>
+      <c r="BD20">
+        <v>1</v>
+      </c>
+      <c r="BE20">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" ht="15" spans="1:57">
+      <c r="A21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>-2</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>-4</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
+      </c>
+      <c r="AA21">
+        <v>1</v>
+      </c>
+      <c r="AF21">
+        <v>1</v>
+      </c>
+      <c r="AG21">
+        <v>1</v>
+      </c>
+      <c r="AH21" s="10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO21">
+        <v>1</v>
+      </c>
+      <c r="AQ21">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AW21">
+        <v>1</v>
+      </c>
+      <c r="AX21">
+        <v>1</v>
+      </c>
+      <c r="AY21">
+        <v>-10</v>
+      </c>
+      <c r="BD21">
+        <v>1</v>
+      </c>
+      <c r="BE21">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="22" ht="15" spans="1:58">
+      <c r="A22" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>-1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="Q22">
         <v>1</v>
       </c>
-      <c r="R22">
-        <v>1</v>
-      </c>
       <c r="S22">
+        <v>-2</v>
+      </c>
+      <c r="T22">
         <v>-1</v>
       </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
       <c r="U22">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="V22">
         <v>1</v>
       </c>
-      <c r="W22">
-        <v>5</v>
-      </c>
-      <c r="X22">
-        <v>1</v>
-      </c>
-      <c r="Z22">
-        <v>5</v>
+      <c r="AA22">
+        <v>1</v>
       </c>
       <c r="AB22">
         <v>1</v>
       </c>
       <c r="AC22">
-        <v>5</v>
+        <v>-3</v>
       </c>
       <c r="AD22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AF22">
         <v>1</v>
@@ -2892,86 +3327,84 @@
       </c>
       <c r="AH22" s="10">
         <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="AI22" s="7" t="s">
-        <v>17</v>
+        <v>7</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>18</v>
       </c>
       <c r="AJ22">
         <v>1</v>
       </c>
-      <c r="AL22">
-        <v>1</v>
-      </c>
-      <c r="AM22">
-        <v>2</v>
-      </c>
-      <c r="AN22">
-        <v>4</v>
-      </c>
       <c r="AO22">
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AQ22">
         <f t="shared" si="2"/>
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="AR22" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS22">
-        <v>1</v>
-      </c>
-      <c r="AT22">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AU22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:47">
-      <c r="A23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>61</v>
+      <c r="AV22">
+        <v>1</v>
+      </c>
+      <c r="AX22">
+        <v>1</v>
+      </c>
+      <c r="AY22">
+        <v>-10</v>
+      </c>
+      <c r="BE22">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="BF22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:58">
+      <c r="A23" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>-1</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>5</v>
+        <v>17</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>-5</v>
       </c>
       <c r="N23">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>-3</v>
       </c>
       <c r="Q23">
         <v>1</v>
       </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
       <c r="S23">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="T23">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="U23">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="V23">
         <v>1</v>
@@ -2979,6 +3412,12 @@
       <c r="W23">
         <v>5</v>
       </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>5</v>
+      </c>
       <c r="Z23">
         <v>5</v>
       </c>
@@ -2992,20 +3431,17 @@
         <v>-3</v>
       </c>
       <c r="AD23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF23">
-        <v>1</v>
-      </c>
-      <c r="AG23">
         <v>1</v>
       </c>
       <c r="AH23" s="10">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="AI23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AJ23">
         <v>1</v>
@@ -3017,20 +3453,20 @@
         <v>-3</v>
       </c>
       <c r="AN23">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AO23">
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AQ23">
         <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="AR23" t="s">
         <v>18</v>
-      </c>
-      <c r="AR23" t="s">
-        <v>36</v>
       </c>
       <c r="AS23">
         <v>1</v>
@@ -3039,43 +3475,58 @@
         <v>10</v>
       </c>
       <c r="AU23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" ht="15" spans="1:44">
-      <c r="A24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>62</v>
+        <v>3</v>
+      </c>
+      <c r="AV23">
+        <v>1</v>
+      </c>
+      <c r="AX23">
+        <v>1</v>
+      </c>
+      <c r="AY23">
+        <v>-10</v>
+      </c>
+      <c r="BB23">
+        <v>1</v>
+      </c>
+      <c r="BC23">
+        <v>1</v>
+      </c>
+      <c r="BD23">
+        <v>1</v>
+      </c>
+      <c r="BE23">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="BF23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:58">
+      <c r="A24" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="Q24">
         <v>1</v>
       </c>
       <c r="S24">
+        <v>-4</v>
+      </c>
+      <c r="T24">
+        <v>-1</v>
+      </c>
+      <c r="U24">
         <v>-2</v>
       </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>-4</v>
+      <c r="V24">
+        <v>1</v>
       </c>
       <c r="X24">
         <v>1</v>
@@ -3083,69 +3534,78 @@
       <c r="AA24">
         <v>1</v>
       </c>
-      <c r="AF24">
-        <v>1</v>
-      </c>
-      <c r="AG24">
-        <v>1</v>
+      <c r="AB24">
+        <v>1</v>
+      </c>
+      <c r="AC24">
+        <v>1</v>
+      </c>
+      <c r="AD24">
+        <v>2</v>
       </c>
       <c r="AH24" s="10">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI24" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="AJ24">
+        <v>1</v>
       </c>
       <c r="AO24">
         <v>1</v>
+      </c>
+      <c r="AP24">
+        <v>13</v>
       </c>
       <c r="AQ24">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="AR24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:47">
-      <c r="A25" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>64</v>
+        <v>31</v>
+      </c>
+      <c r="AS24">
+        <v>1</v>
+      </c>
+      <c r="AT24">
+        <v>10</v>
+      </c>
+      <c r="AU24">
+        <v>1</v>
+      </c>
+      <c r="AZ24">
+        <v>1</v>
+      </c>
+      <c r="BB24">
+        <v>1</v>
+      </c>
+      <c r="BC24">
+        <v>1</v>
+      </c>
+      <c r="BD24">
+        <v>1</v>
+      </c>
+      <c r="BE24">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="BF24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:58">
+      <c r="A25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>-1</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>5</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="Q25">
-        <v>1</v>
-      </c>
-      <c r="S25">
-        <v>-2</v>
-      </c>
-      <c r="T25">
-        <v>-1</v>
-      </c>
-      <c r="U25">
-        <v>-2</v>
-      </c>
-      <c r="V25">
+        <v>17</v>
+      </c>
+      <c r="X25">
         <v>1</v>
       </c>
       <c r="AA25">
@@ -3155,684 +3615,660 @@
         <v>1</v>
       </c>
       <c r="AC25">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="AD25">
-        <v>3</v>
-      </c>
-      <c r="AF25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AG25">
         <v>1</v>
       </c>
       <c r="AH25" s="10">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AI25" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
+        <v>1</v>
+      </c>
+      <c r="AP25">
         <v>16</v>
-      </c>
-      <c r="AJ25">
-        <v>1</v>
-      </c>
-      <c r="AO25">
-        <v>1</v>
-      </c>
-      <c r="AP25">
-        <v>21</v>
       </c>
       <c r="AQ25">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AR25" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS25">
+        <v>1</v>
+      </c>
+      <c r="AT25">
+        <v>10</v>
+      </c>
+      <c r="AU25">
+        <v>1</v>
+      </c>
+      <c r="AX25">
+        <v>1</v>
+      </c>
+      <c r="AY25">
+        <v>-10</v>
+      </c>
+      <c r="AZ25">
+        <v>1</v>
+      </c>
+      <c r="BA25">
+        <v>2</v>
+      </c>
+      <c r="BE25">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="BF25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" hidden="1" spans="1:3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:44">
+      <c r="A29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AU25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:47">
-      <c r="A26" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>-5</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="0"/>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>-1</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>5</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>17</v>
+      </c>
+      <c r="N29" s="7">
+        <f>SUBTOTAL(9,D29:M29)</f>
+        <v>27</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH29" s="10">
+        <f>SUM(Q29:AG29)+N29</f>
+        <v>27</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ29">
+        <f>SUM(AJ29:AP29)+AH29</f>
+        <v>27</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:44">
+      <c r="A30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>5</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>9</v>
+      </c>
+      <c r="N30">
+        <f>SUBTOTAL(9,D30:M30)</f>
+        <v>17</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <v>-2</v>
+      </c>
+      <c r="T30">
+        <v>-1</v>
+      </c>
+      <c r="U30">
         <v>-3</v>
       </c>
-      <c r="Q26">
-        <v>1</v>
-      </c>
-      <c r="R26">
-        <v>1</v>
-      </c>
-      <c r="S26">
-        <v>-3</v>
-      </c>
-      <c r="T26">
-        <v>-4</v>
-      </c>
-      <c r="U26">
-        <v>-4</v>
-      </c>
-      <c r="V26">
-        <v>1</v>
-      </c>
-      <c r="W26">
+      <c r="V30">
+        <v>1</v>
+      </c>
+      <c r="X30">
+        <v>1</v>
+      </c>
+      <c r="Y30">
         <v>5</v>
       </c>
-      <c r="X26">
-        <v>1</v>
-      </c>
-      <c r="Y26">
+      <c r="AH30" s="10">
+        <f>SUM(Q30:AG30)+N30</f>
+        <v>19</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ30">
+        <f>SUM(AJ30:AP30)+AH30</f>
+        <v>19</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:44">
+      <c r="A31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <f>SUBTOTAL(9,D31:M31)</f>
+        <v>2</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>1</v>
+      </c>
+      <c r="X31">
+        <v>1</v>
+      </c>
+      <c r="Y31">
         <v>5</v>
       </c>
-      <c r="Z26">
-        <v>5</v>
-      </c>
-      <c r="AA26">
-        <v>1</v>
-      </c>
-      <c r="AB26">
-        <v>1</v>
-      </c>
-      <c r="AC26">
-        <v>-3</v>
-      </c>
-      <c r="AD26">
-        <v>1</v>
-      </c>
-      <c r="AF26">
-        <v>1</v>
-      </c>
-      <c r="AH26" s="10">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="AI26" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ26">
-        <v>1</v>
-      </c>
-      <c r="AL26">
-        <v>1</v>
-      </c>
-      <c r="AM26">
-        <v>-3</v>
-      </c>
-      <c r="AN26">
-        <v>0</v>
-      </c>
-      <c r="AO26">
-        <v>1</v>
-      </c>
-      <c r="AP26">
-        <v>-1</v>
-      </c>
-      <c r="AQ26">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="AR26" t="s">
-        <v>16</v>
-      </c>
-      <c r="AS26">
-        <v>1</v>
-      </c>
-      <c r="AT26">
-        <v>10</v>
-      </c>
-      <c r="AU26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:47">
-      <c r="A27" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q27">
-        <v>1</v>
-      </c>
-      <c r="S27">
-        <v>-4</v>
-      </c>
-      <c r="T27">
-        <v>-1</v>
-      </c>
-      <c r="U27">
-        <v>-2</v>
-      </c>
-      <c r="V27">
-        <v>1</v>
-      </c>
-      <c r="X27">
-        <v>1</v>
-      </c>
-      <c r="AA27">
-        <v>1</v>
-      </c>
-      <c r="AB27">
-        <v>1</v>
-      </c>
-      <c r="AC27">
-        <v>1</v>
-      </c>
-      <c r="AD27">
-        <v>2</v>
-      </c>
-      <c r="AH27" s="10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AI27" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ27">
-        <v>1</v>
-      </c>
-      <c r="AO27">
-        <v>1</v>
-      </c>
-      <c r="AP27">
-        <v>13</v>
-      </c>
-      <c r="AQ27">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="AR27" t="s">
-        <v>36</v>
-      </c>
-      <c r="AS27">
-        <v>1</v>
-      </c>
-      <c r="AT27">
-        <v>10</v>
-      </c>
-      <c r="AU27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:47">
-      <c r="A28" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="X28">
-        <v>1</v>
-      </c>
-      <c r="AA28">
-        <v>1</v>
-      </c>
-      <c r="AB28">
-        <v>1</v>
-      </c>
-      <c r="AC28">
-        <v>1</v>
-      </c>
-      <c r="AD28">
-        <v>4</v>
-      </c>
-      <c r="AG28">
-        <v>1</v>
-      </c>
-      <c r="AH28" s="10">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="AI28" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ28">
-        <v>1</v>
-      </c>
-      <c r="AO28">
-        <v>1</v>
-      </c>
-      <c r="AP28">
-        <v>16</v>
-      </c>
-      <c r="AQ28">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="AR28" t="s">
-        <v>21</v>
-      </c>
-      <c r="AS28">
-        <v>1</v>
-      </c>
-      <c r="AT28">
-        <v>10</v>
-      </c>
-      <c r="AU28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" hidden="1" spans="1:3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" t="s">
-        <v>73</v>
+      <c r="AF31">
+        <v>1</v>
+      </c>
+      <c r="AG31">
+        <v>1</v>
+      </c>
+      <c r="AH31" s="10">
+        <f>SUM(Q31:AG31)+N31</f>
+        <v>12</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ31">
+        <f>SUM(AJ31:AP31)+AH31</f>
+        <v>12</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" t="s">
         <v>78</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C36" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="C38" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="C39" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C40" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="C41" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="C42" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C43" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C44" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="C45" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C46" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C47" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C48" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C49" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>107</v>
+      <c r="A50" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="C50" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>49</v>
+      <c r="A51" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="C51" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C52" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C53" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="C54" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" t="s">
         <v>114</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C55" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="C56" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="C57" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="C58" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="C59" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="C60" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C61" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C62" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C63" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C64" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C65" t="s">
-        <v>109</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C66" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L29">
+  <autoFilter ref="A1:L26">
     <filterColumn colId="2">
       <customFilters>
         <customFilter operator="equal" val="ВМ"/>
